--- a/database/industries/siman/sehegmat/product/monthly.xlsx
+++ b/database/industries/siman/sehegmat/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sehegmat\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4591B991-DEB9-42C4-AC24-9A8973C40CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E62F59-E8E9-470C-B828-CFE40F2FF317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 9 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/08</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -1438,143 +1438,143 @@
       <c r="H11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>57</v>
+      <c r="I11" s="11">
+        <v>8154</v>
       </c>
       <c r="J11" s="11">
-        <v>8154</v>
+        <v>13420</v>
       </c>
       <c r="K11" s="11">
-        <v>13420</v>
+        <v>19087</v>
       </c>
       <c r="L11" s="11">
-        <v>19087</v>
+        <v>13177</v>
       </c>
       <c r="M11" s="11">
-        <v>13177</v>
+        <v>11997</v>
       </c>
       <c r="N11" s="11">
-        <v>11997</v>
+        <v>6231</v>
       </c>
       <c r="O11" s="11">
-        <v>6231</v>
+        <v>11274</v>
       </c>
       <c r="P11" s="11">
-        <v>11274</v>
+        <v>28628</v>
       </c>
       <c r="Q11" s="11">
-        <v>28628</v>
+        <v>22023</v>
       </c>
       <c r="R11" s="11">
-        <v>22023</v>
+        <v>26067</v>
       </c>
       <c r="S11" s="11">
-        <v>26067</v>
+        <v>41226</v>
       </c>
       <c r="T11" s="11">
-        <v>41226</v>
+        <v>18206</v>
       </c>
       <c r="U11" s="11">
-        <v>18206</v>
+        <v>17141</v>
       </c>
       <c r="V11" s="11">
-        <v>17141</v>
+        <v>21056</v>
       </c>
       <c r="W11" s="11">
-        <v>21056</v>
+        <v>12241</v>
       </c>
       <c r="X11" s="11">
-        <v>12241</v>
+        <v>21927</v>
       </c>
       <c r="Y11" s="11">
-        <v>21927</v>
+        <v>15301</v>
       </c>
       <c r="Z11" s="11">
-        <v>15301</v>
+        <v>13597</v>
       </c>
       <c r="AA11" s="11">
-        <v>13597</v>
+        <v>23223</v>
       </c>
       <c r="AB11" s="11">
-        <v>23223</v>
+        <v>31731</v>
       </c>
       <c r="AC11" s="11">
-        <v>31731</v>
+        <v>27595</v>
       </c>
       <c r="AD11" s="11">
-        <v>27595</v>
+        <v>18563</v>
       </c>
       <c r="AE11" s="11">
-        <v>18563</v>
+        <v>23070</v>
       </c>
       <c r="AF11" s="11">
-        <v>23070</v>
+        <v>19113</v>
       </c>
       <c r="AG11" s="11">
-        <v>19113</v>
+        <v>54906</v>
       </c>
       <c r="AH11" s="11">
-        <v>54906</v>
+        <v>15879</v>
       </c>
       <c r="AI11" s="11">
-        <v>15879</v>
+        <v>17797</v>
       </c>
       <c r="AJ11" s="11">
-        <v>17797</v>
+        <v>38993</v>
       </c>
       <c r="AK11" s="11">
-        <v>38993</v>
+        <v>439</v>
       </c>
       <c r="AL11" s="11">
-        <v>439</v>
+        <v>16126</v>
       </c>
       <c r="AM11" s="11">
-        <v>16126</v>
+        <v>31650</v>
       </c>
       <c r="AN11" s="11">
-        <v>31650</v>
+        <v>3770</v>
       </c>
       <c r="AO11" s="11">
-        <v>3770</v>
+        <v>13465</v>
       </c>
       <c r="AP11" s="11">
-        <v>13465</v>
+        <v>569</v>
       </c>
       <c r="AQ11" s="11">
-        <v>569</v>
+        <v>56800</v>
       </c>
       <c r="AR11" s="11">
-        <v>56800</v>
+        <v>57086</v>
       </c>
       <c r="AS11" s="11">
-        <v>57086</v>
+        <v>15952</v>
       </c>
       <c r="AT11" s="11">
-        <v>15952</v>
+        <v>92242</v>
       </c>
       <c r="AU11" s="11">
-        <v>92242</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="11">
-        <v>0</v>
+        <v>64338</v>
       </c>
       <c r="AW11" s="11">
-        <v>64338</v>
+        <v>87829</v>
       </c>
       <c r="AX11" s="11">
-        <v>87829</v>
+        <v>13519</v>
       </c>
       <c r="AY11" s="11">
-        <v>13519</v>
+        <v>75246</v>
       </c>
       <c r="AZ11" s="11">
-        <v>75246</v>
+        <v>18452</v>
       </c>
       <c r="BA11" s="11">
-        <v>18452</v>
+        <v>713</v>
       </c>
       <c r="BB11" s="11">
-        <v>713</v>
+        <v>48429</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1711,29 +1711,29 @@
       <c r="AT12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU12" s="13" t="s">
-        <v>57</v>
+      <c r="AU12" s="13">
+        <v>77132</v>
       </c>
       <c r="AV12" s="13">
-        <v>77132</v>
+        <v>91478</v>
       </c>
       <c r="AW12" s="13">
-        <v>91478</v>
+        <v>156004</v>
       </c>
       <c r="AX12" s="13">
-        <v>156004</v>
+        <v>161879</v>
       </c>
       <c r="AY12" s="13">
-        <v>161879</v>
+        <v>111532</v>
       </c>
       <c r="AZ12" s="13">
-        <v>111532</v>
+        <v>103477</v>
       </c>
       <c r="BA12" s="13">
-        <v>103477</v>
+        <v>146554</v>
       </c>
       <c r="BB12" s="13">
-        <v>146554</v>
+        <v>88487</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1745,91 +1745,91 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>17748</v>
+        <v>49211</v>
       </c>
       <c r="F13" s="11">
-        <v>49211</v>
+        <v>6449</v>
       </c>
       <c r="G13" s="11">
-        <v>6449</v>
+        <v>7150</v>
       </c>
       <c r="H13" s="11">
-        <v>7150</v>
+        <v>2585</v>
       </c>
       <c r="I13" s="11">
-        <v>2585</v>
+        <v>2996</v>
       </c>
       <c r="J13" s="11">
-        <v>2996</v>
+        <v>56977</v>
       </c>
       <c r="K13" s="11">
-        <v>56977</v>
+        <v>0</v>
       </c>
       <c r="L13" s="11">
-        <v>0</v>
+        <v>49318</v>
       </c>
       <c r="M13" s="11">
-        <v>49318</v>
+        <v>40179</v>
       </c>
       <c r="N13" s="11">
-        <v>40179</v>
+        <v>0</v>
       </c>
       <c r="O13" s="11">
-        <v>0</v>
+        <v>47346</v>
       </c>
       <c r="P13" s="11">
-        <v>47346</v>
+        <v>45501</v>
       </c>
       <c r="Q13" s="11">
-        <v>45501</v>
+        <v>46226</v>
       </c>
       <c r="R13" s="11">
-        <v>46226</v>
+        <v>7004</v>
       </c>
       <c r="S13" s="11">
-        <v>7004</v>
+        <v>96373</v>
       </c>
       <c r="T13" s="11">
-        <v>96373</v>
+        <v>52461</v>
       </c>
       <c r="U13" s="11">
-        <v>52461</v>
+        <v>12107</v>
       </c>
       <c r="V13" s="11">
-        <v>12107</v>
+        <v>3102</v>
       </c>
       <c r="W13" s="11">
-        <v>3102</v>
+        <v>79</v>
       </c>
       <c r="X13" s="11">
-        <v>79</v>
+        <v>12031</v>
       </c>
       <c r="Y13" s="11">
-        <v>12031</v>
+        <v>41974</v>
       </c>
       <c r="Z13" s="11">
-        <v>41974</v>
+        <v>229</v>
       </c>
       <c r="AA13" s="11">
-        <v>229</v>
+        <v>800</v>
       </c>
       <c r="AB13" s="11">
-        <v>800</v>
+        <v>93167</v>
       </c>
       <c r="AC13" s="11">
-        <v>93167</v>
+        <v>50500</v>
       </c>
       <c r="AD13" s="11">
-        <v>50500</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="11">
-        <v>0</v>
+        <v>39093</v>
       </c>
       <c r="AF13" s="11">
-        <v>39093</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH13" s="11" t="s">
         <v>57</v>
@@ -1987,32 +1987,32 @@
       <c r="AF14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG14" s="13" t="s">
-        <v>57</v>
+      <c r="AG14" s="13">
+        <v>112537</v>
       </c>
       <c r="AH14" s="13">
-        <v>112537</v>
+        <v>91717</v>
       </c>
       <c r="AI14" s="13">
-        <v>91717</v>
+        <v>75379</v>
       </c>
       <c r="AJ14" s="13">
-        <v>75379</v>
+        <v>77229</v>
       </c>
       <c r="AK14" s="13">
-        <v>77229</v>
+        <v>32425</v>
       </c>
       <c r="AL14" s="13">
-        <v>32425</v>
+        <v>35809</v>
       </c>
       <c r="AM14" s="13">
-        <v>35809</v>
+        <v>64462</v>
       </c>
       <c r="AN14" s="13">
-        <v>64462</v>
+        <v>24634</v>
       </c>
       <c r="AO14" s="13">
-        <v>24634</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="13">
         <v>0</v>
@@ -2023,8 +2023,8 @@
       <c r="AR14" s="13">
         <v>0</v>
       </c>
-      <c r="AS14" s="13">
-        <v>0</v>
+      <c r="AS14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT14" s="13" t="s">
         <v>57</v>
@@ -2146,44 +2146,44 @@
       <c r="AF15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG15" s="11" t="s">
-        <v>57</v>
+      <c r="AG15" s="11">
+        <v>33927</v>
       </c>
       <c r="AH15" s="11">
-        <v>33927</v>
+        <v>53361</v>
       </c>
       <c r="AI15" s="11">
-        <v>53361</v>
+        <v>59335</v>
       </c>
       <c r="AJ15" s="11">
-        <v>59335</v>
+        <v>59420</v>
       </c>
       <c r="AK15" s="11">
-        <v>59420</v>
+        <v>41286</v>
       </c>
       <c r="AL15" s="11">
-        <v>41286</v>
+        <v>30888</v>
       </c>
       <c r="AM15" s="11">
-        <v>30888</v>
+        <v>39978</v>
       </c>
       <c r="AN15" s="11">
-        <v>39978</v>
+        <v>23040</v>
       </c>
       <c r="AO15" s="11">
-        <v>23040</v>
+        <v>7171</v>
       </c>
       <c r="AP15" s="11">
-        <v>7171</v>
+        <v>6767</v>
       </c>
       <c r="AQ15" s="11">
-        <v>6767</v>
+        <v>3835</v>
       </c>
       <c r="AR15" s="11">
-        <v>3835</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT15" s="11" t="s">
         <v>57</v>
@@ -2341,14 +2341,14 @@
       <c r="AR16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS16" s="13" t="s">
-        <v>57</v>
+      <c r="AS16" s="13">
+        <v>73590</v>
       </c>
       <c r="AT16" s="13">
-        <v>73590</v>
-      </c>
-      <c r="AU16" s="13">
         <v>123612</v>
+      </c>
+      <c r="AU16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV16" s="13" t="s">
         <v>57</v>
@@ -2381,19 +2381,19 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="F17" s="11">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
       </c>
       <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
         <v>1372</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>57</v>
@@ -2540,91 +2540,91 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>102103</v>
+        <v>100332</v>
       </c>
       <c r="F18" s="13">
-        <v>100332</v>
+        <v>99275</v>
       </c>
       <c r="G18" s="13">
-        <v>99275</v>
+        <v>99472</v>
       </c>
       <c r="H18" s="13">
-        <v>99472</v>
+        <v>46560</v>
       </c>
       <c r="I18" s="13">
-        <v>46560</v>
+        <v>90655</v>
       </c>
       <c r="J18" s="13">
-        <v>90655</v>
+        <v>121372</v>
       </c>
       <c r="K18" s="13">
-        <v>121372</v>
+        <v>67791</v>
       </c>
       <c r="L18" s="13">
-        <v>67791</v>
+        <v>136264</v>
       </c>
       <c r="M18" s="13">
-        <v>136264</v>
+        <v>114815</v>
       </c>
       <c r="N18" s="13">
-        <v>114815</v>
+        <v>122603</v>
       </c>
       <c r="O18" s="13">
-        <v>122603</v>
+        <v>130946</v>
       </c>
       <c r="P18" s="13">
-        <v>130946</v>
+        <v>126863</v>
       </c>
       <c r="Q18" s="13">
-        <v>126863</v>
+        <v>111643</v>
       </c>
       <c r="R18" s="13">
-        <v>111643</v>
+        <v>103250</v>
       </c>
       <c r="S18" s="13">
-        <v>103250</v>
+        <v>87103</v>
       </c>
       <c r="T18" s="13">
-        <v>87103</v>
+        <v>83324</v>
       </c>
       <c r="U18" s="13">
-        <v>83324</v>
+        <v>60647</v>
       </c>
       <c r="V18" s="13">
-        <v>60647</v>
+        <v>101070</v>
       </c>
       <c r="W18" s="13">
-        <v>101070</v>
+        <v>63439</v>
       </c>
       <c r="X18" s="13">
-        <v>63439</v>
+        <v>125729</v>
       </c>
       <c r="Y18" s="13">
-        <v>125729</v>
+        <v>127570</v>
       </c>
       <c r="Z18" s="13">
-        <v>127570</v>
+        <v>149790</v>
       </c>
       <c r="AA18" s="13">
-        <v>149790</v>
+        <v>148772</v>
       </c>
       <c r="AB18" s="13">
-        <v>148772</v>
+        <v>115621</v>
       </c>
       <c r="AC18" s="13">
-        <v>115621</v>
+        <v>110483</v>
       </c>
       <c r="AD18" s="13">
-        <v>110483</v>
+        <v>136630</v>
       </c>
       <c r="AE18" s="13">
-        <v>136630</v>
+        <v>83967</v>
       </c>
       <c r="AF18" s="13">
-        <v>83967</v>
-      </c>
-      <c r="AG18" s="13">
         <v>94256</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH18" s="13" t="s">
         <v>57</v>
@@ -2699,31 +2699,31 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>7712</v>
+        <v>5960</v>
       </c>
       <c r="F19" s="11">
-        <v>5960</v>
+        <v>9678</v>
       </c>
       <c r="G19" s="11">
-        <v>9678</v>
+        <v>2382</v>
       </c>
       <c r="H19" s="11">
-        <v>2382</v>
+        <v>1762</v>
       </c>
       <c r="I19" s="11">
-        <v>1762</v>
+        <v>420</v>
       </c>
       <c r="J19" s="11">
-        <v>420</v>
+        <v>813</v>
       </c>
       <c r="K19" s="11">
-        <v>813</v>
+        <v>895</v>
       </c>
       <c r="L19" s="11">
-        <v>895</v>
+        <v>733</v>
       </c>
       <c r="M19" s="11">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="N19" s="11">
         <v>0</v>
@@ -2741,13 +2741,13 @@
         <v>0</v>
       </c>
       <c r="S19" s="11">
-        <v>0</v>
+        <v>3353</v>
       </c>
       <c r="T19" s="11">
-        <v>3353</v>
-      </c>
-      <c r="U19" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V19" s="11" t="s">
         <v>57</v>
@@ -2974,11 +2974,11 @@
       <c r="AQ20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS20" s="13">
+      <c r="AR20" s="13">
         <v>97193</v>
+      </c>
+      <c r="AS20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT20" s="13" t="s">
         <v>57</v>
@@ -3121,20 +3121,20 @@
       <c r="AM21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO21" s="11">
+      <c r="AN21" s="11">
         <v>86828</v>
       </c>
-      <c r="AP21" s="11" t="s">
-        <v>57</v>
+      <c r="AO21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP21" s="11">
+        <v>97761</v>
       </c>
       <c r="AQ21" s="11">
-        <v>97761</v>
-      </c>
-      <c r="AR21" s="11">
         <v>129978</v>
+      </c>
+      <c r="AR21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS21" s="11" t="s">
         <v>57</v>
@@ -3314,8 +3314,8 @@
       <c r="AF23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AG23" s="17" t="s">
-        <v>57</v>
+      <c r="AG23" s="17">
+        <v>0</v>
       </c>
       <c r="AH23" s="17">
         <v>0</v>
@@ -3388,154 +3388,154 @@
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19">
-        <v>127563</v>
+        <v>155822</v>
       </c>
       <c r="F24" s="19">
-        <v>155822</v>
+        <v>115402</v>
       </c>
       <c r="G24" s="19">
-        <v>115402</v>
+        <v>109004</v>
       </c>
       <c r="H24" s="19">
-        <v>109004</v>
+        <v>52279</v>
       </c>
       <c r="I24" s="19">
-        <v>52279</v>
+        <v>102225</v>
       </c>
       <c r="J24" s="19">
-        <v>102225</v>
+        <v>192582</v>
       </c>
       <c r="K24" s="19">
-        <v>192582</v>
+        <v>87773</v>
       </c>
       <c r="L24" s="19">
-        <v>87773</v>
+        <v>199492</v>
       </c>
       <c r="M24" s="19">
-        <v>199492</v>
+        <v>166991</v>
       </c>
       <c r="N24" s="19">
-        <v>166991</v>
+        <v>128834</v>
       </c>
       <c r="O24" s="19">
-        <v>128834</v>
+        <v>189566</v>
       </c>
       <c r="P24" s="19">
-        <v>189566</v>
+        <v>200992</v>
       </c>
       <c r="Q24" s="19">
-        <v>200992</v>
+        <v>179892</v>
       </c>
       <c r="R24" s="19">
-        <v>179892</v>
+        <v>136321</v>
       </c>
       <c r="S24" s="19">
-        <v>136321</v>
+        <v>228055</v>
       </c>
       <c r="T24" s="19">
-        <v>228055</v>
+        <v>153991</v>
       </c>
       <c r="U24" s="19">
-        <v>153991</v>
+        <v>89895</v>
       </c>
       <c r="V24" s="19">
-        <v>89895</v>
+        <v>125228</v>
       </c>
       <c r="W24" s="19">
-        <v>125228</v>
+        <v>75759</v>
       </c>
       <c r="X24" s="19">
-        <v>75759</v>
+        <v>159687</v>
       </c>
       <c r="Y24" s="19">
-        <v>159687</v>
+        <v>184845</v>
       </c>
       <c r="Z24" s="19">
-        <v>184845</v>
+        <v>163616</v>
       </c>
       <c r="AA24" s="19">
-        <v>163616</v>
+        <v>172795</v>
       </c>
       <c r="AB24" s="19">
-        <v>172795</v>
+        <v>240519</v>
       </c>
       <c r="AC24" s="19">
-        <v>240519</v>
+        <v>188578</v>
       </c>
       <c r="AD24" s="19">
-        <v>188578</v>
+        <v>155193</v>
       </c>
       <c r="AE24" s="19">
-        <v>155193</v>
+        <v>146130</v>
       </c>
       <c r="AF24" s="19">
-        <v>146130</v>
+        <v>113369</v>
       </c>
       <c r="AG24" s="19">
-        <v>113369</v>
+        <v>201370</v>
       </c>
       <c r="AH24" s="19">
-        <v>201370</v>
+        <v>160957</v>
       </c>
       <c r="AI24" s="19">
-        <v>160957</v>
+        <v>152511</v>
       </c>
       <c r="AJ24" s="19">
-        <v>152511</v>
+        <v>175642</v>
       </c>
       <c r="AK24" s="19">
-        <v>175642</v>
+        <v>74150</v>
       </c>
       <c r="AL24" s="19">
-        <v>74150</v>
+        <v>82823</v>
       </c>
       <c r="AM24" s="19">
-        <v>82823</v>
+        <v>136090</v>
       </c>
       <c r="AN24" s="19">
-        <v>136090</v>
+        <v>138272</v>
       </c>
       <c r="AO24" s="19">
-        <v>138272</v>
+        <v>20636</v>
       </c>
       <c r="AP24" s="19">
-        <v>20636</v>
+        <v>105097</v>
       </c>
       <c r="AQ24" s="19">
-        <v>105097</v>
+        <v>190613</v>
       </c>
       <c r="AR24" s="19">
-        <v>190613</v>
+        <v>154279</v>
       </c>
       <c r="AS24" s="19">
-        <v>154279</v>
+        <v>89542</v>
       </c>
       <c r="AT24" s="19">
-        <v>89542</v>
+        <v>215854</v>
       </c>
       <c r="AU24" s="19">
-        <v>215854</v>
+        <v>77132</v>
       </c>
       <c r="AV24" s="19">
-        <v>77132</v>
+        <v>155816</v>
       </c>
       <c r="AW24" s="19">
-        <v>155816</v>
+        <v>243833</v>
       </c>
       <c r="AX24" s="19">
-        <v>243833</v>
+        <v>175398</v>
       </c>
       <c r="AY24" s="19">
-        <v>175398</v>
+        <v>186778</v>
       </c>
       <c r="AZ24" s="19">
-        <v>186778</v>
+        <v>121929</v>
       </c>
       <c r="BA24" s="19">
-        <v>121929</v>
+        <v>147267</v>
       </c>
       <c r="BB24" s="19">
-        <v>147267</v>
+        <v>136916</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3992,143 +3992,143 @@
       <c r="H31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>57</v>
+      <c r="I31" s="11">
+        <v>8154</v>
       </c>
       <c r="J31" s="11">
-        <v>8154</v>
+        <v>13420</v>
       </c>
       <c r="K31" s="11">
-        <v>13420</v>
+        <v>19087</v>
       </c>
       <c r="L31" s="11">
-        <v>19087</v>
+        <v>13177</v>
       </c>
       <c r="M31" s="11">
-        <v>13177</v>
+        <v>11997</v>
       </c>
       <c r="N31" s="11">
-        <v>11997</v>
+        <v>6231</v>
       </c>
       <c r="O31" s="11">
-        <v>6231</v>
+        <v>11274</v>
       </c>
       <c r="P31" s="11">
-        <v>11274</v>
+        <v>28628</v>
       </c>
       <c r="Q31" s="11">
-        <v>28628</v>
+        <v>22023</v>
       </c>
       <c r="R31" s="11">
-        <v>22023</v>
+        <v>26067</v>
       </c>
       <c r="S31" s="11">
-        <v>26067</v>
+        <v>41226</v>
       </c>
       <c r="T31" s="11">
-        <v>41226</v>
+        <v>18206</v>
       </c>
       <c r="U31" s="11">
-        <v>18206</v>
+        <v>17141</v>
       </c>
       <c r="V31" s="11">
-        <v>17141</v>
+        <v>21056</v>
       </c>
       <c r="W31" s="11">
-        <v>21056</v>
+        <v>12241</v>
       </c>
       <c r="X31" s="11">
-        <v>12241</v>
+        <v>21927</v>
       </c>
       <c r="Y31" s="11">
-        <v>21927</v>
+        <v>15301</v>
       </c>
       <c r="Z31" s="11">
-        <v>15301</v>
+        <v>13597</v>
       </c>
       <c r="AA31" s="11">
-        <v>13597</v>
+        <v>23223</v>
       </c>
       <c r="AB31" s="11">
-        <v>23223</v>
+        <v>31731</v>
       </c>
       <c r="AC31" s="11">
-        <v>31731</v>
+        <v>27595</v>
       </c>
       <c r="AD31" s="11">
-        <v>27595</v>
+        <v>18563</v>
       </c>
       <c r="AE31" s="11">
-        <v>18563</v>
+        <v>23070</v>
       </c>
       <c r="AF31" s="11">
-        <v>23070</v>
+        <v>19113</v>
       </c>
       <c r="AG31" s="11">
-        <v>19113</v>
+        <v>54906</v>
       </c>
       <c r="AH31" s="11">
-        <v>54906</v>
+        <v>15879</v>
       </c>
       <c r="AI31" s="11">
-        <v>15879</v>
+        <v>17797</v>
       </c>
       <c r="AJ31" s="11">
-        <v>17797</v>
+        <v>38993</v>
       </c>
       <c r="AK31" s="11">
-        <v>38993</v>
+        <v>439</v>
       </c>
       <c r="AL31" s="11">
-        <v>439</v>
+        <v>16126</v>
       </c>
       <c r="AM31" s="11">
-        <v>16126</v>
+        <v>31650</v>
       </c>
       <c r="AN31" s="11">
-        <v>31650</v>
+        <v>3770</v>
       </c>
       <c r="AO31" s="11">
-        <v>3770</v>
+        <v>13465</v>
       </c>
       <c r="AP31" s="11">
-        <v>13465</v>
+        <v>569</v>
       </c>
       <c r="AQ31" s="11">
-        <v>569</v>
+        <v>56800</v>
       </c>
       <c r="AR31" s="11">
-        <v>56800</v>
+        <v>57086</v>
       </c>
       <c r="AS31" s="11">
-        <v>57086</v>
+        <v>15952</v>
       </c>
       <c r="AT31" s="11">
-        <v>15952</v>
+        <v>92242</v>
       </c>
       <c r="AU31" s="11">
-        <v>92242</v>
+        <v>0</v>
       </c>
       <c r="AV31" s="11">
-        <v>0</v>
+        <v>64338</v>
       </c>
       <c r="AW31" s="11">
-        <v>64338</v>
+        <v>87829</v>
       </c>
       <c r="AX31" s="11">
-        <v>87829</v>
+        <v>13519</v>
       </c>
       <c r="AY31" s="11">
-        <v>13519</v>
+        <v>75246</v>
       </c>
       <c r="AZ31" s="11">
-        <v>75246</v>
+        <v>18452</v>
       </c>
       <c r="BA31" s="11">
-        <v>18452</v>
+        <v>713</v>
       </c>
       <c r="BB31" s="11">
-        <v>713</v>
+        <v>48429</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4265,29 +4265,29 @@
       <c r="AT32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU32" s="13" t="s">
-        <v>57</v>
+      <c r="AU32" s="13">
+        <v>76291</v>
       </c>
       <c r="AV32" s="13">
-        <v>76291</v>
+        <v>93129</v>
       </c>
       <c r="AW32" s="13">
-        <v>93129</v>
+        <v>153154</v>
       </c>
       <c r="AX32" s="13">
-        <v>153154</v>
+        <v>162178</v>
       </c>
       <c r="AY32" s="13">
-        <v>162178</v>
+        <v>107706</v>
       </c>
       <c r="AZ32" s="13">
-        <v>107706</v>
+        <v>112176</v>
       </c>
       <c r="BA32" s="13">
-        <v>112176</v>
+        <v>106193</v>
       </c>
       <c r="BB32" s="13">
-        <v>106193</v>
+        <v>93678</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4299,91 +4299,91 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>17748</v>
+        <v>49211</v>
       </c>
       <c r="F33" s="11">
-        <v>49211</v>
+        <v>6449</v>
       </c>
       <c r="G33" s="11">
-        <v>6449</v>
+        <v>7150</v>
       </c>
       <c r="H33" s="11">
-        <v>7150</v>
+        <v>2585</v>
       </c>
       <c r="I33" s="11">
-        <v>2585</v>
+        <v>2996</v>
       </c>
       <c r="J33" s="11">
-        <v>2996</v>
+        <v>56977</v>
       </c>
       <c r="K33" s="11">
-        <v>56977</v>
+        <v>0</v>
       </c>
       <c r="L33" s="11">
-        <v>0</v>
+        <v>49318</v>
       </c>
       <c r="M33" s="11">
-        <v>49318</v>
+        <v>40179</v>
       </c>
       <c r="N33" s="11">
-        <v>40179</v>
+        <v>0</v>
       </c>
       <c r="O33" s="11">
-        <v>0</v>
+        <v>47346</v>
       </c>
       <c r="P33" s="11">
-        <v>47346</v>
+        <v>45501</v>
       </c>
       <c r="Q33" s="11">
-        <v>45501</v>
+        <v>46226</v>
       </c>
       <c r="R33" s="11">
-        <v>46226</v>
+        <v>7004</v>
       </c>
       <c r="S33" s="11">
-        <v>7004</v>
+        <v>96373</v>
       </c>
       <c r="T33" s="11">
-        <v>96373</v>
+        <v>52461</v>
       </c>
       <c r="U33" s="11">
-        <v>52461</v>
+        <v>12107</v>
       </c>
       <c r="V33" s="11">
-        <v>12107</v>
+        <v>3102</v>
       </c>
       <c r="W33" s="11">
-        <v>3102</v>
+        <v>79</v>
       </c>
       <c r="X33" s="11">
-        <v>79</v>
+        <v>12031</v>
       </c>
       <c r="Y33" s="11">
-        <v>12031</v>
+        <v>41974</v>
       </c>
       <c r="Z33" s="11">
-        <v>41974</v>
+        <v>229</v>
       </c>
       <c r="AA33" s="11">
-        <v>229</v>
+        <v>800</v>
       </c>
       <c r="AB33" s="11">
-        <v>800</v>
+        <v>93167</v>
       </c>
       <c r="AC33" s="11">
-        <v>93167</v>
+        <v>50500</v>
       </c>
       <c r="AD33" s="11">
-        <v>50500</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="11">
-        <v>0</v>
+        <v>39093</v>
       </c>
       <c r="AF33" s="11">
-        <v>39093</v>
-      </c>
-      <c r="AG33" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH33" s="11" t="s">
         <v>57</v>
@@ -4541,44 +4541,44 @@
       <c r="AF34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG34" s="13" t="s">
-        <v>57</v>
+      <c r="AG34" s="13">
+        <v>69085</v>
       </c>
       <c r="AH34" s="13">
-        <v>69085</v>
+        <v>96067</v>
       </c>
       <c r="AI34" s="13">
-        <v>96067</v>
+        <v>75754</v>
       </c>
       <c r="AJ34" s="13">
-        <v>75754</v>
+        <v>68454</v>
       </c>
       <c r="AK34" s="13">
-        <v>68454</v>
+        <v>43676</v>
       </c>
       <c r="AL34" s="13">
-        <v>43676</v>
+        <v>32359</v>
       </c>
       <c r="AM34" s="13">
-        <v>32359</v>
+        <v>61312</v>
       </c>
       <c r="AN34" s="13">
-        <v>61312</v>
+        <v>21184</v>
       </c>
       <c r="AO34" s="13">
-        <v>21184</v>
+        <v>395</v>
       </c>
       <c r="AP34" s="13">
-        <v>395</v>
+        <v>151</v>
       </c>
       <c r="AQ34" s="13">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="13">
         <v>0</v>
       </c>
-      <c r="AS34" s="13">
-        <v>0</v>
+      <c r="AS34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT34" s="13" t="s">
         <v>57</v>
@@ -4700,44 +4700,44 @@
       <c r="AF35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG35" s="11" t="s">
-        <v>57</v>
+      <c r="AG35" s="11">
+        <v>33927</v>
       </c>
       <c r="AH35" s="11">
-        <v>33927</v>
+        <v>53361</v>
       </c>
       <c r="AI35" s="11">
-        <v>53361</v>
+        <v>59335</v>
       </c>
       <c r="AJ35" s="11">
-        <v>59335</v>
+        <v>59420</v>
       </c>
       <c r="AK35" s="11">
-        <v>59420</v>
+        <v>41286</v>
       </c>
       <c r="AL35" s="11">
-        <v>41286</v>
+        <v>30888</v>
       </c>
       <c r="AM35" s="11">
-        <v>30888</v>
+        <v>39978</v>
       </c>
       <c r="AN35" s="11">
-        <v>39978</v>
+        <v>23040</v>
       </c>
       <c r="AO35" s="11">
-        <v>23040</v>
+        <v>7171</v>
       </c>
       <c r="AP35" s="11">
-        <v>7171</v>
+        <v>6767</v>
       </c>
       <c r="AQ35" s="11">
-        <v>6767</v>
+        <v>3835</v>
       </c>
       <c r="AR35" s="11">
-        <v>3835</v>
-      </c>
-      <c r="AS35" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT35" s="11" t="s">
         <v>57</v>
@@ -4895,14 +4895,14 @@
       <c r="AR36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS36" s="13" t="s">
-        <v>57</v>
+      <c r="AS36" s="13">
+        <v>71579</v>
       </c>
       <c r="AT36" s="13">
-        <v>71579</v>
-      </c>
-      <c r="AU36" s="13">
         <v>124213</v>
+      </c>
+      <c r="AU36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV36" s="13" t="s">
         <v>57</v>
@@ -4935,19 +4935,19 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="F37" s="11">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G37" s="11">
         <v>0</v>
       </c>
       <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
         <v>1372</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>57</v>
@@ -5094,91 +5094,91 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>107504</v>
+        <v>99582</v>
       </c>
       <c r="F38" s="13">
-        <v>99582</v>
+        <v>95975</v>
       </c>
       <c r="G38" s="13">
-        <v>95975</v>
+        <v>92047</v>
       </c>
       <c r="H38" s="13">
-        <v>92047</v>
+        <v>51359</v>
       </c>
       <c r="I38" s="13">
-        <v>51359</v>
+        <v>87245</v>
       </c>
       <c r="J38" s="13">
-        <v>87245</v>
+        <v>128258</v>
       </c>
       <c r="K38" s="13">
-        <v>128258</v>
+        <v>66441</v>
       </c>
       <c r="L38" s="13">
-        <v>66441</v>
+        <v>137614</v>
       </c>
       <c r="M38" s="13">
-        <v>137614</v>
+        <v>113090</v>
       </c>
       <c r="N38" s="13">
-        <v>113090</v>
+        <v>129878</v>
       </c>
       <c r="O38" s="13">
-        <v>129878</v>
+        <v>124045</v>
       </c>
       <c r="P38" s="13">
-        <v>124045</v>
+        <v>125964</v>
       </c>
       <c r="Q38" s="13">
-        <v>125964</v>
+        <v>108991</v>
       </c>
       <c r="R38" s="13">
-        <v>108991</v>
+        <v>99223</v>
       </c>
       <c r="S38" s="13">
-        <v>99223</v>
+        <v>90154</v>
       </c>
       <c r="T38" s="13">
-        <v>90154</v>
+        <v>82899</v>
       </c>
       <c r="U38" s="13">
-        <v>82899</v>
+        <v>67621</v>
       </c>
       <c r="V38" s="13">
-        <v>67621</v>
+        <v>101070</v>
       </c>
       <c r="W38" s="13">
-        <v>101070</v>
+        <v>61114</v>
       </c>
       <c r="X38" s="13">
-        <v>61114</v>
+        <v>133005</v>
       </c>
       <c r="Y38" s="13">
-        <v>133005</v>
+        <v>124345</v>
       </c>
       <c r="Z38" s="13">
-        <v>124345</v>
+        <v>151290</v>
       </c>
       <c r="AA38" s="13">
-        <v>151290</v>
+        <v>141347</v>
       </c>
       <c r="AB38" s="13">
-        <v>141347</v>
+        <v>118096</v>
       </c>
       <c r="AC38" s="13">
-        <v>118096</v>
+        <v>112282</v>
       </c>
       <c r="AD38" s="13">
-        <v>112282</v>
+        <v>134931</v>
       </c>
       <c r="AE38" s="13">
-        <v>134931</v>
+        <v>82542</v>
       </c>
       <c r="AF38" s="13">
-        <v>82542</v>
-      </c>
-      <c r="AG38" s="13">
         <v>104881</v>
+      </c>
+      <c r="AG38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH38" s="13" t="s">
         <v>57</v>
@@ -5253,31 +5253,31 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>7712</v>
+        <v>5960</v>
       </c>
       <c r="F39" s="11">
-        <v>5960</v>
+        <v>9678</v>
       </c>
       <c r="G39" s="11">
-        <v>9678</v>
+        <v>2382</v>
       </c>
       <c r="H39" s="11">
-        <v>2382</v>
+        <v>1762</v>
       </c>
       <c r="I39" s="11">
-        <v>1762</v>
+        <v>420</v>
       </c>
       <c r="J39" s="11">
-        <v>420</v>
+        <v>813</v>
       </c>
       <c r="K39" s="11">
-        <v>813</v>
+        <v>895</v>
       </c>
       <c r="L39" s="11">
-        <v>895</v>
+        <v>733</v>
       </c>
       <c r="M39" s="11">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="N39" s="11">
         <v>0</v>
@@ -5295,13 +5295,13 @@
         <v>0</v>
       </c>
       <c r="S39" s="11">
-        <v>0</v>
+        <v>3353</v>
       </c>
       <c r="T39" s="11">
-        <v>3353</v>
-      </c>
-      <c r="U39" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V39" s="11" t="s">
         <v>57</v>
@@ -5528,11 +5528,11 @@
       <c r="AQ40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS40" s="13">
+      <c r="AR40" s="13">
         <v>96295</v>
+      </c>
+      <c r="AS40" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT40" s="13" t="s">
         <v>57</v>
@@ -5675,20 +5675,20 @@
       <c r="AM41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO41" s="11">
+      <c r="AN41" s="11">
         <v>86828</v>
       </c>
-      <c r="AP41" s="11" t="s">
-        <v>57</v>
+      <c r="AO41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>100910</v>
       </c>
       <c r="AQ41" s="11">
-        <v>100910</v>
-      </c>
-      <c r="AR41" s="11">
         <v>128477</v>
+      </c>
+      <c r="AR41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS41" s="11" t="s">
         <v>57</v>
@@ -5868,8 +5868,8 @@
       <c r="AF43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AG43" s="17" t="s">
-        <v>57</v>
+      <c r="AG43" s="17">
+        <v>0</v>
       </c>
       <c r="AH43" s="17">
         <v>0</v>
@@ -6082,8 +6082,8 @@
       <c r="AF45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AG45" s="17" t="s">
-        <v>57</v>
+      <c r="AG45" s="17">
+        <v>0</v>
       </c>
       <c r="AH45" s="17">
         <v>0</v>
@@ -6156,154 +6156,154 @@
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19">
-        <v>132964</v>
+        <v>155072</v>
       </c>
       <c r="F46" s="19">
-        <v>155072</v>
+        <v>112102</v>
       </c>
       <c r="G46" s="19">
-        <v>112102</v>
+        <v>101579</v>
       </c>
       <c r="H46" s="19">
-        <v>101579</v>
+        <v>57078</v>
       </c>
       <c r="I46" s="19">
-        <v>57078</v>
+        <v>98815</v>
       </c>
       <c r="J46" s="19">
-        <v>98815</v>
+        <v>199468</v>
       </c>
       <c r="K46" s="19">
-        <v>199468</v>
+        <v>86423</v>
       </c>
       <c r="L46" s="19">
-        <v>86423</v>
+        <v>200842</v>
       </c>
       <c r="M46" s="19">
-        <v>200842</v>
+        <v>165266</v>
       </c>
       <c r="N46" s="19">
-        <v>165266</v>
+        <v>136109</v>
       </c>
       <c r="O46" s="19">
-        <v>136109</v>
+        <v>182665</v>
       </c>
       <c r="P46" s="19">
-        <v>182665</v>
+        <v>200093</v>
       </c>
       <c r="Q46" s="19">
-        <v>200093</v>
+        <v>177240</v>
       </c>
       <c r="R46" s="19">
-        <v>177240</v>
+        <v>132294</v>
       </c>
       <c r="S46" s="19">
-        <v>132294</v>
+        <v>231106</v>
       </c>
       <c r="T46" s="19">
-        <v>231106</v>
+        <v>153566</v>
       </c>
       <c r="U46" s="19">
-        <v>153566</v>
+        <v>96869</v>
       </c>
       <c r="V46" s="19">
-        <v>96869</v>
+        <v>125228</v>
       </c>
       <c r="W46" s="19">
-        <v>125228</v>
+        <v>73434</v>
       </c>
       <c r="X46" s="19">
-        <v>73434</v>
+        <v>166963</v>
       </c>
       <c r="Y46" s="19">
-        <v>166963</v>
+        <v>181620</v>
       </c>
       <c r="Z46" s="19">
-        <v>181620</v>
+        <v>165116</v>
       </c>
       <c r="AA46" s="19">
-        <v>165116</v>
+        <v>165370</v>
       </c>
       <c r="AB46" s="19">
-        <v>165370</v>
+        <v>242994</v>
       </c>
       <c r="AC46" s="19">
-        <v>242994</v>
+        <v>190377</v>
       </c>
       <c r="AD46" s="19">
-        <v>190377</v>
+        <v>153494</v>
       </c>
       <c r="AE46" s="19">
-        <v>153494</v>
+        <v>144705</v>
       </c>
       <c r="AF46" s="19">
-        <v>144705</v>
+        <v>123994</v>
       </c>
       <c r="AG46" s="19">
-        <v>123994</v>
+        <v>157918</v>
       </c>
       <c r="AH46" s="19">
-        <v>157918</v>
+        <v>165307</v>
       </c>
       <c r="AI46" s="19">
-        <v>165307</v>
+        <v>152886</v>
       </c>
       <c r="AJ46" s="19">
-        <v>152886</v>
+        <v>166867</v>
       </c>
       <c r="AK46" s="19">
-        <v>166867</v>
+        <v>85401</v>
       </c>
       <c r="AL46" s="19">
-        <v>85401</v>
+        <v>79373</v>
       </c>
       <c r="AM46" s="19">
-        <v>79373</v>
+        <v>132940</v>
       </c>
       <c r="AN46" s="19">
-        <v>132940</v>
+        <v>134822</v>
       </c>
       <c r="AO46" s="19">
-        <v>134822</v>
+        <v>21031</v>
       </c>
       <c r="AP46" s="19">
-        <v>21031</v>
+        <v>108397</v>
       </c>
       <c r="AQ46" s="19">
-        <v>108397</v>
+        <v>189112</v>
       </c>
       <c r="AR46" s="19">
-        <v>189112</v>
+        <v>153381</v>
       </c>
       <c r="AS46" s="19">
-        <v>153381</v>
+        <v>87531</v>
       </c>
       <c r="AT46" s="19">
-        <v>87531</v>
+        <v>216455</v>
       </c>
       <c r="AU46" s="19">
-        <v>216455</v>
+        <v>76291</v>
       </c>
       <c r="AV46" s="19">
-        <v>76291</v>
+        <v>157467</v>
       </c>
       <c r="AW46" s="19">
-        <v>157467</v>
+        <v>240983</v>
       </c>
       <c r="AX46" s="19">
-        <v>240983</v>
+        <v>175697</v>
       </c>
       <c r="AY46" s="19">
-        <v>175697</v>
+        <v>182952</v>
       </c>
       <c r="AZ46" s="19">
-        <v>182952</v>
+        <v>130628</v>
       </c>
       <c r="BA46" s="19">
-        <v>130628</v>
+        <v>106906</v>
       </c>
       <c r="BB46" s="19">
-        <v>106906</v>
+        <v>142107</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6760,143 +6760,143 @@
       <c r="H53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I53" s="11" t="s">
-        <v>57</v>
+      <c r="I53" s="11">
+        <v>5708</v>
       </c>
       <c r="J53" s="11">
-        <v>5708</v>
+        <v>9394</v>
       </c>
       <c r="K53" s="11">
-        <v>9394</v>
+        <v>13361</v>
       </c>
       <c r="L53" s="11">
-        <v>13361</v>
+        <v>9224</v>
       </c>
       <c r="M53" s="11">
-        <v>9224</v>
+        <v>8398</v>
       </c>
       <c r="N53" s="11">
-        <v>8398</v>
+        <v>4911</v>
       </c>
       <c r="O53" s="11">
-        <v>4911</v>
+        <v>10205</v>
       </c>
       <c r="P53" s="11">
-        <v>10205</v>
+        <v>27213</v>
       </c>
       <c r="Q53" s="11">
-        <v>27213</v>
+        <v>20907</v>
       </c>
       <c r="R53" s="11">
-        <v>20907</v>
+        <v>23915</v>
       </c>
       <c r="S53" s="11">
-        <v>23915</v>
+        <v>37822</v>
       </c>
       <c r="T53" s="11">
-        <v>37822</v>
+        <v>16703</v>
       </c>
       <c r="U53" s="11">
-        <v>16703</v>
+        <v>15725</v>
       </c>
       <c r="V53" s="11">
-        <v>15725</v>
+        <v>19318</v>
       </c>
       <c r="W53" s="11">
-        <v>19318</v>
+        <v>12336</v>
       </c>
       <c r="X53" s="11">
-        <v>12336</v>
+        <v>22128</v>
       </c>
       <c r="Y53" s="11">
-        <v>22128</v>
+        <v>15441</v>
       </c>
       <c r="Z53" s="11">
-        <v>15441</v>
+        <v>14396</v>
       </c>
       <c r="AA53" s="11">
-        <v>14396</v>
+        <v>26912</v>
       </c>
       <c r="AB53" s="11">
-        <v>26912</v>
+        <v>38278</v>
       </c>
       <c r="AC53" s="11">
-        <v>38278</v>
+        <v>33348</v>
       </c>
       <c r="AD53" s="11">
-        <v>33348</v>
+        <v>22342</v>
       </c>
       <c r="AE53" s="11">
-        <v>22342</v>
+        <v>28193</v>
       </c>
       <c r="AF53" s="11">
-        <v>28193</v>
+        <v>23233</v>
       </c>
       <c r="AG53" s="11">
-        <v>23233</v>
+        <v>224969</v>
       </c>
       <c r="AH53" s="11">
-        <v>224969</v>
+        <v>54161</v>
       </c>
       <c r="AI53" s="11">
-        <v>54161</v>
+        <v>66002</v>
       </c>
       <c r="AJ53" s="11">
-        <v>66002</v>
+        <v>181574</v>
       </c>
       <c r="AK53" s="11">
-        <v>181574</v>
+        <v>1870</v>
       </c>
       <c r="AL53" s="11">
-        <v>1870</v>
+        <v>83704</v>
       </c>
       <c r="AM53" s="11">
-        <v>83704</v>
+        <v>185645</v>
       </c>
       <c r="AN53" s="11">
-        <v>185645</v>
+        <v>17978</v>
       </c>
       <c r="AO53" s="11">
-        <v>17978</v>
+        <v>66588</v>
       </c>
       <c r="AP53" s="11">
-        <v>66588</v>
+        <v>3076</v>
       </c>
       <c r="AQ53" s="11">
-        <v>3076</v>
+        <v>295166</v>
       </c>
       <c r="AR53" s="11">
-        <v>295166</v>
+        <v>319516</v>
       </c>
       <c r="AS53" s="11">
-        <v>319516</v>
+        <v>93227</v>
       </c>
       <c r="AT53" s="11">
-        <v>93227</v>
+        <v>508590</v>
       </c>
       <c r="AU53" s="11">
-        <v>508590</v>
+        <v>0</v>
       </c>
       <c r="AV53" s="11">
-        <v>0</v>
+        <v>379690</v>
       </c>
       <c r="AW53" s="11">
-        <v>379690</v>
+        <v>574384</v>
       </c>
       <c r="AX53" s="11">
-        <v>574384</v>
+        <v>91125</v>
       </c>
       <c r="AY53" s="11">
-        <v>91125</v>
+        <v>582143</v>
       </c>
       <c r="AZ53" s="11">
-        <v>582143</v>
+        <v>137287</v>
       </c>
       <c r="BA53" s="11">
-        <v>137287</v>
+        <v>4964</v>
       </c>
       <c r="BB53" s="11">
-        <v>4964</v>
+        <v>416134</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7033,29 +7033,29 @@
       <c r="AT54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU54" s="13" t="s">
-        <v>57</v>
+      <c r="AU54" s="13">
+        <v>385179</v>
       </c>
       <c r="AV54" s="13">
-        <v>385179</v>
+        <v>470299</v>
       </c>
       <c r="AW54" s="13">
-        <v>470299</v>
+        <v>866648</v>
       </c>
       <c r="AX54" s="13">
-        <v>866648</v>
+        <v>1228034</v>
       </c>
       <c r="AY54" s="13">
-        <v>1228035</v>
+        <v>727088</v>
       </c>
       <c r="AZ54" s="13">
-        <v>727087</v>
+        <v>733608</v>
       </c>
       <c r="BA54" s="13">
-        <v>733608</v>
+        <v>669095</v>
       </c>
       <c r="BB54" s="13">
-        <v>669095</v>
+        <v>574762</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7067,91 +7067,91 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>14010</v>
+        <v>93260</v>
       </c>
       <c r="F55" s="11">
-        <v>93260</v>
+        <v>4778</v>
       </c>
       <c r="G55" s="11">
-        <v>4778</v>
+        <v>5086</v>
       </c>
       <c r="H55" s="11">
-        <v>5086</v>
+        <v>1802</v>
       </c>
       <c r="I55" s="11">
-        <v>1802</v>
+        <v>2199</v>
       </c>
       <c r="J55" s="11">
-        <v>2199</v>
+        <v>105407</v>
       </c>
       <c r="K55" s="11">
-        <v>105407</v>
+        <v>0</v>
       </c>
       <c r="L55" s="11">
-        <v>0</v>
+        <v>96644</v>
       </c>
       <c r="M55" s="11">
-        <v>96644</v>
+        <v>78258</v>
       </c>
       <c r="N55" s="11">
-        <v>78258</v>
+        <v>0</v>
       </c>
       <c r="O55" s="11">
-        <v>0</v>
+        <v>92325</v>
       </c>
       <c r="P55" s="11">
-        <v>92325</v>
+        <v>84178</v>
       </c>
       <c r="Q55" s="11">
-        <v>84178</v>
+        <v>89214</v>
       </c>
       <c r="R55" s="11">
-        <v>89214</v>
+        <v>11767</v>
       </c>
       <c r="S55" s="11">
-        <v>11767</v>
+        <v>183156</v>
       </c>
       <c r="T55" s="11">
-        <v>183156</v>
+        <v>87914</v>
       </c>
       <c r="U55" s="11">
-        <v>87914</v>
+        <v>23833</v>
       </c>
       <c r="V55" s="11">
-        <v>23833</v>
+        <v>6252</v>
       </c>
       <c r="W55" s="11">
-        <v>6252</v>
+        <v>160</v>
       </c>
       <c r="X55" s="11">
-        <v>160</v>
+        <v>28505</v>
       </c>
       <c r="Y55" s="11">
-        <v>28505</v>
+        <v>125855</v>
       </c>
       <c r="Z55" s="11">
-        <v>125855</v>
+        <v>585</v>
       </c>
       <c r="AA55" s="11">
-        <v>585</v>
+        <v>1965</v>
       </c>
       <c r="AB55" s="11">
-        <v>1965</v>
+        <v>370338</v>
       </c>
       <c r="AC55" s="11">
-        <v>370338</v>
+        <v>258573</v>
       </c>
       <c r="AD55" s="11">
-        <v>258573</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="11">
-        <v>0</v>
+        <v>168261</v>
       </c>
       <c r="AF55" s="11">
-        <v>168261</v>
-      </c>
-      <c r="AG55" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH55" s="11" t="s">
         <v>57</v>
@@ -7309,44 +7309,44 @@
       <c r="AF56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG56" s="13" t="s">
-        <v>57</v>
+      <c r="AG56" s="13">
+        <v>153697</v>
       </c>
       <c r="AH56" s="13">
-        <v>153697</v>
+        <v>212570</v>
       </c>
       <c r="AI56" s="13">
-        <v>212570</v>
+        <v>170762</v>
       </c>
       <c r="AJ56" s="13">
-        <v>170762</v>
+        <v>213243</v>
       </c>
       <c r="AK56" s="13">
-        <v>213243</v>
+        <v>134816</v>
       </c>
       <c r="AL56" s="13">
-        <v>134816</v>
+        <v>101850</v>
       </c>
       <c r="AM56" s="13">
-        <v>101850</v>
+        <v>210292</v>
       </c>
       <c r="AN56" s="13">
-        <v>210292</v>
+        <v>75799</v>
       </c>
       <c r="AO56" s="13">
-        <v>75799</v>
+        <v>1532</v>
       </c>
       <c r="AP56" s="13">
-        <v>1532</v>
+        <v>413</v>
       </c>
       <c r="AQ56" s="13">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="AR56" s="13">
         <v>0</v>
       </c>
-      <c r="AS56" s="13">
-        <v>0</v>
+      <c r="AS56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT56" s="13" t="s">
         <v>57</v>
@@ -7468,44 +7468,44 @@
       <c r="AF57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG57" s="11" t="s">
-        <v>57</v>
+      <c r="AG57" s="11">
+        <v>109104</v>
       </c>
       <c r="AH57" s="11">
-        <v>109104</v>
+        <v>170884</v>
       </c>
       <c r="AI57" s="11">
-        <v>170884</v>
+        <v>199951</v>
       </c>
       <c r="AJ57" s="11">
-        <v>199951</v>
+        <v>258438</v>
       </c>
       <c r="AK57" s="11">
-        <v>258438</v>
+        <v>179961</v>
       </c>
       <c r="AL57" s="11">
-        <v>179961</v>
+        <v>136185</v>
       </c>
       <c r="AM57" s="11">
-        <v>136185</v>
+        <v>180893</v>
       </c>
       <c r="AN57" s="11">
-        <v>180893</v>
+        <v>115569</v>
       </c>
       <c r="AO57" s="11">
-        <v>115569</v>
+        <v>38574</v>
       </c>
       <c r="AP57" s="11">
-        <v>38574</v>
+        <v>36676</v>
       </c>
       <c r="AQ57" s="11">
-        <v>36676</v>
+        <v>21180</v>
       </c>
       <c r="AR57" s="11">
-        <v>21180</v>
-      </c>
-      <c r="AS57" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT57" s="11" t="s">
         <v>57</v>
@@ -7663,14 +7663,14 @@
       <c r="AR58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS58" s="13" t="s">
-        <v>57</v>
+      <c r="AS58" s="13">
+        <v>299657</v>
       </c>
       <c r="AT58" s="13">
-        <v>299657</v>
-      </c>
-      <c r="AU58" s="13">
         <v>588651</v>
+      </c>
+      <c r="AU58" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV58" s="13" t="s">
         <v>57</v>
@@ -7703,19 +7703,19 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F59" s="11">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="G59" s="11">
         <v>0</v>
       </c>
       <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
         <v>961</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>57</v>
@@ -7862,91 +7862,91 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>124462</v>
+        <v>114656</v>
       </c>
       <c r="F60" s="13">
-        <v>114656</v>
+        <v>107931</v>
       </c>
       <c r="G60" s="13">
-        <v>107931</v>
+        <v>106274</v>
       </c>
       <c r="H60" s="13">
-        <v>106274</v>
+        <v>57587</v>
       </c>
       <c r="I60" s="13">
-        <v>57587</v>
+        <v>95541</v>
       </c>
       <c r="J60" s="13">
-        <v>95541</v>
+        <v>145625</v>
       </c>
       <c r="K60" s="13">
-        <v>145625</v>
+        <v>78881</v>
       </c>
       <c r="L60" s="13">
-        <v>78881</v>
+        <v>165160</v>
       </c>
       <c r="M60" s="13">
-        <v>165160</v>
+        <v>144090</v>
       </c>
       <c r="N60" s="13">
-        <v>144090</v>
+        <v>217276</v>
       </c>
       <c r="O60" s="13">
-        <v>217276</v>
+        <v>234160</v>
       </c>
       <c r="P60" s="13">
-        <v>234160</v>
+        <v>237483</v>
       </c>
       <c r="Q60" s="13">
-        <v>237483</v>
+        <v>203753</v>
       </c>
       <c r="R60" s="13">
-        <v>203753</v>
+        <v>180138</v>
       </c>
       <c r="S60" s="13">
-        <v>180138</v>
+        <v>158922</v>
       </c>
       <c r="T60" s="13">
-        <v>158922</v>
+        <v>136570</v>
       </c>
       <c r="U60" s="13">
-        <v>136570</v>
+        <v>117825</v>
       </c>
       <c r="V60" s="13">
-        <v>117825</v>
+        <v>177576</v>
       </c>
       <c r="W60" s="13">
-        <v>177576</v>
+        <v>110599</v>
       </c>
       <c r="X60" s="13">
-        <v>110599</v>
+        <v>235525</v>
       </c>
       <c r="Y60" s="13">
-        <v>235525</v>
+        <v>229052</v>
       </c>
       <c r="Z60" s="13">
-        <v>229052</v>
+        <v>342768</v>
       </c>
       <c r="AA60" s="13">
-        <v>342768</v>
+        <v>341931</v>
       </c>
       <c r="AB60" s="13">
-        <v>341931</v>
+        <v>292639</v>
       </c>
       <c r="AC60" s="13">
-        <v>292639</v>
+        <v>285021</v>
       </c>
       <c r="AD60" s="13">
-        <v>285021</v>
+        <v>354668</v>
       </c>
       <c r="AE60" s="13">
-        <v>354668</v>
+        <v>203319</v>
       </c>
       <c r="AF60" s="13">
-        <v>203319</v>
-      </c>
-      <c r="AG60" s="13">
         <v>256300</v>
+      </c>
+      <c r="AG60" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH60" s="13" t="s">
         <v>57</v>
@@ -8021,31 +8021,31 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>7079</v>
+        <v>5158</v>
       </c>
       <c r="F61" s="11">
-        <v>5158</v>
+        <v>8288</v>
       </c>
       <c r="G61" s="11">
-        <v>8288</v>
+        <v>2552</v>
       </c>
       <c r="H61" s="11">
-        <v>2552</v>
+        <v>1915</v>
       </c>
       <c r="I61" s="11">
-        <v>1915</v>
+        <v>462</v>
       </c>
       <c r="J61" s="11">
-        <v>462</v>
+        <v>749</v>
       </c>
       <c r="K61" s="11">
-        <v>749</v>
+        <v>830</v>
       </c>
       <c r="L61" s="11">
-        <v>830</v>
+        <v>688</v>
       </c>
       <c r="M61" s="11">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="N61" s="11">
         <v>0</v>
@@ -8063,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="S61" s="11">
-        <v>0</v>
+        <v>9693</v>
       </c>
       <c r="T61" s="11">
-        <v>9693</v>
-      </c>
-      <c r="U61" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V61" s="11" t="s">
         <v>57</v>
@@ -8296,11 +8296,11 @@
       <c r="AQ62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS62" s="13">
+      <c r="AR62" s="13">
         <v>340894</v>
+      </c>
+      <c r="AS62" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT62" s="13" t="s">
         <v>57</v>
@@ -8443,20 +8443,20 @@
       <c r="AM63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO63" s="11">
+      <c r="AN63" s="11">
         <v>385195</v>
       </c>
-      <c r="AP63" s="11" t="s">
-        <v>57</v>
+      <c r="AO63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP63" s="11">
+        <v>389219</v>
       </c>
       <c r="AQ63" s="11">
-        <v>389219</v>
-      </c>
-      <c r="AR63" s="11">
         <v>512433</v>
+      </c>
+      <c r="AR63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS63" s="11" t="s">
         <v>57</v>
@@ -8638,8 +8638,8 @@
       <c r="AF65" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AG65" s="17" t="s">
-        <v>57</v>
+      <c r="AG65" s="17">
+        <v>0</v>
       </c>
       <c r="AH65" s="17">
         <v>0</v>
@@ -8854,8 +8854,8 @@
       <c r="AF67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AG67" s="17" t="s">
-        <v>57</v>
+      <c r="AG67" s="17">
+        <v>0</v>
       </c>
       <c r="AH67" s="17">
         <v>0</v>
@@ -9070,8 +9070,8 @@
       <c r="AF69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG69" s="11" t="s">
-        <v>57</v>
+      <c r="AG69" s="11">
+        <v>0</v>
       </c>
       <c r="AH69" s="11">
         <v>0</v>
@@ -9144,154 +9144,154 @@
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19">
-        <v>145551</v>
+        <v>213329</v>
       </c>
       <c r="F70" s="19">
-        <v>213329</v>
+        <v>120997</v>
       </c>
       <c r="G70" s="19">
-        <v>120997</v>
+        <v>113912</v>
       </c>
       <c r="H70" s="19">
-        <v>113912</v>
+        <v>62265</v>
       </c>
       <c r="I70" s="19">
-        <v>62265</v>
+        <v>103910</v>
       </c>
       <c r="J70" s="19">
-        <v>103910</v>
+        <v>261175</v>
       </c>
       <c r="K70" s="19">
-        <v>261175</v>
+        <v>93072</v>
       </c>
       <c r="L70" s="19">
-        <v>93072</v>
+        <v>271716</v>
       </c>
       <c r="M70" s="19">
-        <v>271716</v>
+        <v>230746</v>
       </c>
       <c r="N70" s="19">
-        <v>230746</v>
+        <v>222187</v>
       </c>
       <c r="O70" s="19">
-        <v>222187</v>
+        <v>336690</v>
       </c>
       <c r="P70" s="19">
-        <v>336690</v>
+        <v>348874</v>
       </c>
       <c r="Q70" s="19">
-        <v>348874</v>
+        <v>313874</v>
       </c>
       <c r="R70" s="19">
-        <v>313874</v>
+        <v>215820</v>
       </c>
       <c r="S70" s="19">
-        <v>215820</v>
+        <v>389593</v>
       </c>
       <c r="T70" s="19">
-        <v>389593</v>
+        <v>241187</v>
       </c>
       <c r="U70" s="19">
-        <v>241187</v>
+        <v>157383</v>
       </c>
       <c r="V70" s="19">
-        <v>157383</v>
+        <v>203145</v>
       </c>
       <c r="W70" s="19">
-        <v>203145</v>
+        <v>123095</v>
       </c>
       <c r="X70" s="19">
-        <v>123095</v>
+        <v>286158</v>
       </c>
       <c r="Y70" s="19">
-        <v>286158</v>
+        <v>370348</v>
       </c>
       <c r="Z70" s="19">
-        <v>370348</v>
+        <v>357749</v>
       </c>
       <c r="AA70" s="19">
-        <v>357749</v>
+        <v>370808</v>
       </c>
       <c r="AB70" s="19">
-        <v>370808</v>
+        <v>701255</v>
       </c>
       <c r="AC70" s="19">
-        <v>701255</v>
+        <v>576942</v>
       </c>
       <c r="AD70" s="19">
-        <v>576942</v>
+        <v>377010</v>
       </c>
       <c r="AE70" s="19">
-        <v>377010</v>
+        <v>399773</v>
       </c>
       <c r="AF70" s="19">
-        <v>399773</v>
+        <v>279533</v>
       </c>
       <c r="AG70" s="19">
-        <v>279533</v>
+        <v>487770</v>
       </c>
       <c r="AH70" s="19">
-        <v>487770</v>
+        <v>437615</v>
       </c>
       <c r="AI70" s="19">
-        <v>437615</v>
+        <v>436715</v>
       </c>
       <c r="AJ70" s="19">
-        <v>436715</v>
+        <v>653255</v>
       </c>
       <c r="AK70" s="19">
-        <v>653255</v>
+        <v>316647</v>
       </c>
       <c r="AL70" s="19">
-        <v>316647</v>
+        <v>321739</v>
       </c>
       <c r="AM70" s="19">
-        <v>321739</v>
+        <v>576830</v>
       </c>
       <c r="AN70" s="19">
-        <v>576830</v>
+        <v>594541</v>
       </c>
       <c r="AO70" s="19">
-        <v>594541</v>
+        <v>106694</v>
       </c>
       <c r="AP70" s="19">
-        <v>106694</v>
+        <v>429384</v>
       </c>
       <c r="AQ70" s="19">
-        <v>429384</v>
+        <v>828779</v>
       </c>
       <c r="AR70" s="19">
-        <v>828779</v>
+        <v>660410</v>
       </c>
       <c r="AS70" s="19">
-        <v>660410</v>
+        <v>392884</v>
       </c>
       <c r="AT70" s="19">
-        <v>392884</v>
+        <v>1097241</v>
       </c>
       <c r="AU70" s="19">
-        <v>1097241</v>
+        <v>385179</v>
       </c>
       <c r="AV70" s="19">
-        <v>385179</v>
+        <v>849989</v>
       </c>
       <c r="AW70" s="19">
-        <v>849989</v>
+        <v>1441032</v>
       </c>
       <c r="AX70" s="19">
-        <v>1441032</v>
+        <v>1319159</v>
       </c>
       <c r="AY70" s="19">
-        <v>1319160</v>
+        <v>1309231</v>
       </c>
       <c r="AZ70" s="19">
-        <v>1309230</v>
+        <v>870895</v>
       </c>
       <c r="BA70" s="19">
-        <v>870895</v>
+        <v>674059</v>
       </c>
       <c r="BB70" s="19">
-        <v>674059</v>
+        <v>990896</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -9748,143 +9748,143 @@
       <c r="H77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I77" s="11" t="s">
-        <v>57</v>
+      <c r="I77" s="11">
+        <v>700025</v>
       </c>
       <c r="J77" s="11">
-        <v>700025</v>
+        <v>700000</v>
       </c>
       <c r="K77" s="11">
-        <v>700000</v>
+        <v>700005</v>
       </c>
       <c r="L77" s="11">
-        <v>700005</v>
+        <v>700008</v>
       </c>
       <c r="M77" s="11">
         <v>700008</v>
       </c>
       <c r="N77" s="11">
-        <v>700008</v>
+        <v>788156</v>
       </c>
       <c r="O77" s="11">
-        <v>788156</v>
+        <v>905180</v>
       </c>
       <c r="P77" s="11">
-        <v>905180</v>
+        <v>950573</v>
       </c>
       <c r="Q77" s="11">
-        <v>950573</v>
+        <v>949326</v>
       </c>
       <c r="R77" s="11">
-        <v>949326</v>
+        <v>917444</v>
       </c>
       <c r="S77" s="11">
-        <v>917444</v>
+        <v>917431</v>
       </c>
       <c r="T77" s="11">
-        <v>917431</v>
+        <v>917445</v>
       </c>
       <c r="U77" s="11">
-        <v>917445</v>
+        <v>917408</v>
       </c>
       <c r="V77" s="11">
-        <v>917408</v>
+        <v>917439</v>
       </c>
       <c r="W77" s="11">
-        <v>917439</v>
+        <v>1007792</v>
       </c>
       <c r="X77" s="11">
-        <v>1007792</v>
+        <v>1009167</v>
       </c>
       <c r="Y77" s="11">
-        <v>1009167</v>
+        <v>1009150</v>
       </c>
       <c r="Z77" s="11">
-        <v>1009150</v>
+        <v>1058763</v>
       </c>
       <c r="AA77" s="11">
-        <v>1058763</v>
+        <v>1158851</v>
       </c>
       <c r="AB77" s="11">
-        <v>1158851</v>
+        <v>1206328</v>
       </c>
       <c r="AC77" s="11">
-        <v>1206328</v>
+        <v>1208480</v>
       </c>
       <c r="AD77" s="11">
-        <v>1208480</v>
+        <v>1203577</v>
       </c>
       <c r="AE77" s="11">
-        <v>1203577</v>
+        <v>1222063</v>
       </c>
       <c r="AF77" s="11">
-        <v>1222063</v>
+        <v>1215560</v>
       </c>
       <c r="AG77" s="11">
-        <v>1215560</v>
+        <v>4097348</v>
       </c>
       <c r="AH77" s="11">
-        <v>4097348</v>
+        <v>3410857</v>
       </c>
       <c r="AI77" s="11">
-        <v>3410857</v>
+        <v>3708603</v>
       </c>
       <c r="AJ77" s="11">
-        <v>3708603</v>
+        <v>4656579</v>
       </c>
       <c r="AK77" s="11">
-        <v>4656579</v>
+        <v>4259681</v>
       </c>
       <c r="AL77" s="11">
-        <v>4259681</v>
+        <v>5190624</v>
       </c>
       <c r="AM77" s="11">
-        <v>5190624</v>
+        <v>5865561</v>
       </c>
       <c r="AN77" s="11">
-        <v>5865561</v>
+        <v>4768700</v>
       </c>
       <c r="AO77" s="11">
-        <v>4768700</v>
+        <v>4945266</v>
       </c>
       <c r="AP77" s="11">
-        <v>4945266</v>
+        <v>5405975</v>
       </c>
       <c r="AQ77" s="11">
-        <v>5405975</v>
+        <v>5196585</v>
       </c>
       <c r="AR77" s="11">
-        <v>5196585</v>
+        <v>5597099</v>
       </c>
       <c r="AS77" s="11">
-        <v>5597099</v>
+        <v>5844220</v>
       </c>
       <c r="AT77" s="11">
-        <v>5844220</v>
-      </c>
-      <c r="AU77" s="11">
         <v>5513649</v>
       </c>
-      <c r="AV77" s="11" t="s">
-        <v>57</v>
+      <c r="AU77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV77" s="11">
+        <v>5901489</v>
       </c>
       <c r="AW77" s="11">
-        <v>5901489</v>
+        <v>6539799</v>
       </c>
       <c r="AX77" s="11">
-        <v>6539799</v>
+        <v>6740513</v>
       </c>
       <c r="AY77" s="11">
-        <v>6740513</v>
+        <v>7736531</v>
       </c>
       <c r="AZ77" s="11">
-        <v>7736531</v>
+        <v>7440223</v>
       </c>
       <c r="BA77" s="11">
-        <v>7440223</v>
+        <v>6962132</v>
       </c>
       <c r="BB77" s="11">
-        <v>6962132</v>
+        <v>8592661</v>
       </c>
     </row>
     <row r="78" spans="2:54" x14ac:dyDescent="0.3">
@@ -10021,29 +10021,29 @@
       <c r="AT78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU78" s="13" t="s">
-        <v>57</v>
+      <c r="AU78" s="13">
+        <v>5048813</v>
       </c>
       <c r="AV78" s="13">
-        <v>5048813</v>
+        <v>5049974</v>
       </c>
       <c r="AW78" s="13">
-        <v>5049974</v>
+        <v>5658670</v>
       </c>
       <c r="AX78" s="13">
-        <v>5658670</v>
+        <v>7572141</v>
       </c>
       <c r="AY78" s="13">
-        <v>7572143</v>
+        <v>6750665</v>
       </c>
       <c r="AZ78" s="13">
-        <v>6750664</v>
+        <v>6539795</v>
       </c>
       <c r="BA78" s="13">
-        <v>6539795</v>
+        <v>6300745</v>
       </c>
       <c r="BB78" s="13">
-        <v>6300745</v>
+        <v>6135507</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10055,91 +10055,91 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>789385</v>
+        <v>1895105</v>
       </c>
       <c r="F79" s="11">
-        <v>1895105</v>
+        <v>740890</v>
       </c>
       <c r="G79" s="11">
-        <v>740890</v>
+        <v>711329</v>
       </c>
       <c r="H79" s="11">
-        <v>711329</v>
+        <v>697099</v>
       </c>
       <c r="I79" s="11">
-        <v>697099</v>
+        <v>733979</v>
       </c>
       <c r="J79" s="11">
-        <v>733979</v>
+        <v>1849992</v>
       </c>
       <c r="K79" s="11">
-        <v>1849992</v>
+        <v>0</v>
       </c>
       <c r="L79" s="11">
-        <v>0</v>
+        <v>1959609</v>
       </c>
       <c r="M79" s="11">
-        <v>1959609</v>
+        <v>1947734</v>
       </c>
       <c r="N79" s="11">
-        <v>1947734</v>
+        <v>0</v>
       </c>
       <c r="O79" s="11">
-        <v>0</v>
+        <v>1950006</v>
       </c>
       <c r="P79" s="11">
-        <v>1950006</v>
+        <v>1850025</v>
       </c>
       <c r="Q79" s="11">
-        <v>1850025</v>
+        <v>1929953</v>
       </c>
       <c r="R79" s="11">
-        <v>1929953</v>
+        <v>1680040</v>
       </c>
       <c r="S79" s="11">
-        <v>1680040</v>
+        <v>1900491</v>
       </c>
       <c r="T79" s="11">
-        <v>1900491</v>
+        <v>1675797</v>
       </c>
       <c r="U79" s="11">
-        <v>1675797</v>
+        <v>1968522</v>
       </c>
       <c r="V79" s="11">
-        <v>1968522</v>
+        <v>2015423</v>
       </c>
       <c r="W79" s="11">
-        <v>2015423</v>
+        <v>2026203</v>
       </c>
       <c r="X79" s="11">
-        <v>2026203</v>
+        <v>2369296</v>
       </c>
       <c r="Y79" s="11">
-        <v>2369296</v>
+        <v>2998404</v>
       </c>
       <c r="Z79" s="11">
-        <v>2998404</v>
+        <v>2554585</v>
       </c>
       <c r="AA79" s="11">
-        <v>2554585</v>
+        <v>2456250</v>
       </c>
       <c r="AB79" s="11">
-        <v>2456250</v>
+        <v>3974991</v>
       </c>
       <c r="AC79" s="11">
-        <v>3974991</v>
+        <v>5120257</v>
       </c>
       <c r="AD79" s="11">
-        <v>5120257</v>
+        <v>0</v>
       </c>
       <c r="AE79" s="11">
-        <v>0</v>
+        <v>4304121</v>
       </c>
       <c r="AF79" s="11">
-        <v>4304121</v>
-      </c>
-      <c r="AG79" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH79" s="11" t="s">
         <v>57</v>
@@ -10297,38 +10297,38 @@
       <c r="AF80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG80" s="13" t="s">
-        <v>57</v>
+      <c r="AG80" s="13">
+        <v>2224752</v>
       </c>
       <c r="AH80" s="13">
-        <v>2224752</v>
+        <v>2212727</v>
       </c>
       <c r="AI80" s="13">
-        <v>2212727</v>
+        <v>2254165</v>
       </c>
       <c r="AJ80" s="13">
-        <v>2254165</v>
+        <v>3115128</v>
       </c>
       <c r="AK80" s="13">
-        <v>3115128</v>
+        <v>3086730</v>
       </c>
       <c r="AL80" s="13">
-        <v>3086730</v>
+        <v>3147501</v>
       </c>
       <c r="AM80" s="13">
-        <v>3147501</v>
+        <v>3429867</v>
       </c>
       <c r="AN80" s="13">
-        <v>3429867</v>
+        <v>3578125</v>
       </c>
       <c r="AO80" s="13">
-        <v>3578125</v>
+        <v>3878481</v>
       </c>
       <c r="AP80" s="13">
-        <v>3878481</v>
-      </c>
-      <c r="AQ80" s="13">
         <v>2735099</v>
+      </c>
+      <c r="AQ80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR80" s="13" t="s">
         <v>57</v>
@@ -10456,41 +10456,41 @@
       <c r="AF81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG81" s="11" t="s">
-        <v>57</v>
+      <c r="AG81" s="11">
+        <v>3215846</v>
       </c>
       <c r="AH81" s="11">
-        <v>3215846</v>
+        <v>3202414</v>
       </c>
       <c r="AI81" s="11">
-        <v>3202414</v>
+        <v>3369866</v>
       </c>
       <c r="AJ81" s="11">
-        <v>3369866</v>
+        <v>4349344</v>
       </c>
       <c r="AK81" s="11">
-        <v>4349344</v>
+        <v>4358887</v>
       </c>
       <c r="AL81" s="11">
-        <v>4358887</v>
+        <v>4408994</v>
       </c>
       <c r="AM81" s="11">
-        <v>4408994</v>
+        <v>4524814</v>
       </c>
       <c r="AN81" s="11">
-        <v>4524814</v>
+        <v>5016016</v>
       </c>
       <c r="AO81" s="11">
-        <v>5016016</v>
+        <v>5379166</v>
       </c>
       <c r="AP81" s="11">
-        <v>5379166</v>
+        <v>5419832</v>
       </c>
       <c r="AQ81" s="11">
-        <v>5419832</v>
-      </c>
-      <c r="AR81" s="11">
         <v>5522816</v>
+      </c>
+      <c r="AR81" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS81" s="11" t="s">
         <v>57</v>
@@ -10651,14 +10651,14 @@
       <c r="AR82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS82" s="13" t="s">
-        <v>57</v>
+      <c r="AS82" s="13">
+        <v>4186381</v>
       </c>
       <c r="AT82" s="13">
-        <v>4186381</v>
-      </c>
-      <c r="AU82" s="13">
         <v>4739045</v>
+      </c>
+      <c r="AU82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV82" s="13" t="s">
         <v>57</v>
@@ -10691,19 +10691,19 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>0</v>
+        <v>799373</v>
       </c>
       <c r="F83" s="11">
-        <v>799373</v>
+        <v>0</v>
       </c>
       <c r="G83" s="11">
         <v>0</v>
       </c>
       <c r="H83" s="11">
-        <v>0</v>
-      </c>
-      <c r="I83" s="11">
         <v>700437</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J83" s="11" t="s">
         <v>57</v>
@@ -10850,91 +10850,91 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>1157743</v>
+        <v>1151373</v>
       </c>
       <c r="F84" s="13">
-        <v>1151373</v>
+        <v>1124574</v>
       </c>
       <c r="G84" s="13">
-        <v>1124574</v>
+        <v>1154562</v>
       </c>
       <c r="H84" s="13">
-        <v>1154562</v>
+        <v>1121264</v>
       </c>
       <c r="I84" s="13">
-        <v>1121264</v>
+        <v>1095089</v>
       </c>
       <c r="J84" s="13">
-        <v>1095089</v>
+        <v>1135407</v>
       </c>
       <c r="K84" s="13">
-        <v>1135407</v>
+        <v>1187234</v>
       </c>
       <c r="L84" s="13">
-        <v>1187234</v>
+        <v>1200169</v>
       </c>
       <c r="M84" s="13">
-        <v>1200169</v>
+        <v>1274118</v>
       </c>
       <c r="N84" s="13">
-        <v>1274118</v>
+        <v>1672924</v>
       </c>
       <c r="O84" s="13">
-        <v>1672924</v>
+        <v>1887702</v>
       </c>
       <c r="P84" s="13">
-        <v>1887702</v>
+        <v>1885324</v>
       </c>
       <c r="Q84" s="13">
-        <v>1885324</v>
+        <v>1869448</v>
       </c>
       <c r="R84" s="13">
-        <v>1869448</v>
+        <v>1815486</v>
       </c>
       <c r="S84" s="13">
-        <v>1815486</v>
+        <v>1762784</v>
       </c>
       <c r="T84" s="13">
-        <v>1762784</v>
+        <v>1647426</v>
       </c>
       <c r="U84" s="13">
-        <v>1647426</v>
+        <v>1742429</v>
       </c>
       <c r="V84" s="13">
-        <v>1742429</v>
+        <v>1756958</v>
       </c>
       <c r="W84" s="13">
-        <v>1756958</v>
+        <v>1809714</v>
       </c>
       <c r="X84" s="13">
-        <v>1809714</v>
+        <v>1770798</v>
       </c>
       <c r="Y84" s="13">
-        <v>1770798</v>
+        <v>1842068</v>
       </c>
       <c r="Z84" s="13">
-        <v>1842068</v>
+        <v>2265636</v>
       </c>
       <c r="AA84" s="13">
-        <v>2265636</v>
+        <v>2419089</v>
       </c>
       <c r="AB84" s="13">
-        <v>2419089</v>
+        <v>2477976</v>
       </c>
       <c r="AC84" s="13">
-        <v>2477976</v>
+        <v>2538439</v>
       </c>
       <c r="AD84" s="13">
-        <v>2538439</v>
+        <v>2628514</v>
       </c>
       <c r="AE84" s="13">
-        <v>2628514</v>
+        <v>2463219</v>
       </c>
       <c r="AF84" s="13">
-        <v>2463219</v>
-      </c>
-      <c r="AG84" s="13">
         <v>2443722</v>
+      </c>
+      <c r="AG84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH84" s="13" t="s">
         <v>57</v>
@@ -11009,31 +11009,31 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>917920</v>
+        <v>865436</v>
       </c>
       <c r="F85" s="11">
-        <v>865436</v>
+        <v>856375</v>
       </c>
       <c r="G85" s="11">
-        <v>856375</v>
+        <v>1071369</v>
       </c>
       <c r="H85" s="11">
-        <v>1071369</v>
+        <v>1086833</v>
       </c>
       <c r="I85" s="11">
-        <v>1086833</v>
+        <v>1100000</v>
       </c>
       <c r="J85" s="11">
-        <v>1100000</v>
+        <v>921279</v>
       </c>
       <c r="K85" s="11">
-        <v>921279</v>
+        <v>927374</v>
       </c>
       <c r="L85" s="11">
-        <v>927374</v>
+        <v>938608</v>
       </c>
       <c r="M85" s="11">
-        <v>938608</v>
+        <v>0</v>
       </c>
       <c r="N85" s="11">
         <v>0</v>
@@ -11051,13 +11051,13 @@
         <v>0</v>
       </c>
       <c r="S85" s="11">
-        <v>0</v>
+        <v>2890844</v>
       </c>
       <c r="T85" s="11">
-        <v>2890844</v>
-      </c>
-      <c r="U85" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="U85" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V85" s="11" t="s">
         <v>57</v>
@@ -11284,11 +11284,11 @@
       <c r="AQ86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS86" s="13">
+      <c r="AR86" s="13">
         <v>3540101</v>
+      </c>
+      <c r="AS86" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT86" s="13" t="s">
         <v>57</v>
@@ -11431,20 +11431,20 @@
       <c r="AM87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN87" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO87" s="11">
+      <c r="AN87" s="11">
         <v>4436299</v>
       </c>
-      <c r="AP87" s="11" t="s">
-        <v>57</v>
+      <c r="AO87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP87" s="11">
+        <v>3857090</v>
       </c>
       <c r="AQ87" s="11">
-        <v>3857090</v>
-      </c>
-      <c r="AR87" s="11">
         <v>3988519</v>
+      </c>
+      <c r="AR87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS87" s="11" t="s">
         <v>57</v>

--- a/database/industries/siman/sehegmat/product/monthly.xlsx
+++ b/database/industries/siman/sehegmat/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sehegmat\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E62F59-E8E9-470C-B828-CFE40F2FF317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A7A66-2478-4268-BE2D-0B3780264589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سهگمت-سیمان‌هگمتان‌</t>

--- a/database/industries/siman/sehegmat/product/monthly.xlsx
+++ b/database/industries/siman/sehegmat/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sehegmat\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sehegmat\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A7A66-2478-4268-BE2D-0B3780264589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D0A6C8-3903-48E2-835C-AB5BFAF85EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/07</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 12 منتهی به 1397/10</t>
@@ -185,6 +176,15 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/11</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -751,12 +751,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -811,7 +811,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -980,7 +980,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1149,7 +1149,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1361,7 +1361,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1429,155 +1429,155 @@
       <c r="E11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>57</v>
+      <c r="F11" s="11">
+        <v>8154</v>
+      </c>
+      <c r="G11" s="11">
+        <v>13420</v>
+      </c>
+      <c r="H11" s="11">
+        <v>19087</v>
       </c>
       <c r="I11" s="11">
-        <v>8154</v>
+        <v>13177</v>
       </c>
       <c r="J11" s="11">
-        <v>13420</v>
+        <v>11997</v>
       </c>
       <c r="K11" s="11">
-        <v>19087</v>
+        <v>6231</v>
       </c>
       <c r="L11" s="11">
-        <v>13177</v>
+        <v>11274</v>
       </c>
       <c r="M11" s="11">
-        <v>11997</v>
+        <v>28628</v>
       </c>
       <c r="N11" s="11">
-        <v>6231</v>
+        <v>22023</v>
       </c>
       <c r="O11" s="11">
-        <v>11274</v>
+        <v>26067</v>
       </c>
       <c r="P11" s="11">
-        <v>28628</v>
+        <v>41226</v>
       </c>
       <c r="Q11" s="11">
-        <v>22023</v>
+        <v>18206</v>
       </c>
       <c r="R11" s="11">
-        <v>26067</v>
+        <v>17141</v>
       </c>
       <c r="S11" s="11">
-        <v>41226</v>
+        <v>21056</v>
       </c>
       <c r="T11" s="11">
-        <v>18206</v>
+        <v>12241</v>
       </c>
       <c r="U11" s="11">
-        <v>17141</v>
+        <v>21927</v>
       </c>
       <c r="V11" s="11">
-        <v>21056</v>
+        <v>15301</v>
       </c>
       <c r="W11" s="11">
-        <v>12241</v>
+        <v>13597</v>
       </c>
       <c r="X11" s="11">
-        <v>21927</v>
+        <v>23223</v>
       </c>
       <c r="Y11" s="11">
-        <v>15301</v>
+        <v>31731</v>
       </c>
       <c r="Z11" s="11">
-        <v>13597</v>
+        <v>27595</v>
       </c>
       <c r="AA11" s="11">
-        <v>23223</v>
+        <v>18563</v>
       </c>
       <c r="AB11" s="11">
-        <v>31731</v>
+        <v>23070</v>
       </c>
       <c r="AC11" s="11">
-        <v>27595</v>
+        <v>19113</v>
       </c>
       <c r="AD11" s="11">
-        <v>18563</v>
+        <v>54906</v>
       </c>
       <c r="AE11" s="11">
-        <v>23070</v>
+        <v>15879</v>
       </c>
       <c r="AF11" s="11">
-        <v>19113</v>
+        <v>17797</v>
       </c>
       <c r="AG11" s="11">
-        <v>54906</v>
+        <v>38993</v>
       </c>
       <c r="AH11" s="11">
-        <v>15879</v>
+        <v>439</v>
       </c>
       <c r="AI11" s="11">
-        <v>17797</v>
+        <v>16126</v>
       </c>
       <c r="AJ11" s="11">
-        <v>38993</v>
+        <v>31650</v>
       </c>
       <c r="AK11" s="11">
-        <v>439</v>
+        <v>3770</v>
       </c>
       <c r="AL11" s="11">
-        <v>16126</v>
+        <v>13465</v>
       </c>
       <c r="AM11" s="11">
-        <v>31650</v>
+        <v>569</v>
       </c>
       <c r="AN11" s="11">
-        <v>3770</v>
+        <v>56800</v>
       </c>
       <c r="AO11" s="11">
-        <v>13465</v>
+        <v>57086</v>
       </c>
       <c r="AP11" s="11">
-        <v>569</v>
+        <v>15952</v>
       </c>
       <c r="AQ11" s="11">
-        <v>56800</v>
+        <v>92242</v>
       </c>
       <c r="AR11" s="11">
-        <v>57086</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
-        <v>15952</v>
+        <v>64338</v>
       </c>
       <c r="AT11" s="11">
-        <v>92242</v>
+        <v>87829</v>
       </c>
       <c r="AU11" s="11">
-        <v>0</v>
+        <v>13519</v>
       </c>
       <c r="AV11" s="11">
-        <v>64338</v>
+        <v>75246</v>
       </c>
       <c r="AW11" s="11">
-        <v>87829</v>
+        <v>18452</v>
       </c>
       <c r="AX11" s="11">
-        <v>13519</v>
+        <v>713</v>
       </c>
       <c r="AY11" s="11">
-        <v>75246</v>
+        <v>48429</v>
       </c>
       <c r="AZ11" s="11">
-        <v>18452</v>
+        <v>8547</v>
       </c>
       <c r="BA11" s="11">
-        <v>713</v>
+        <v>186</v>
       </c>
       <c r="BB11" s="11">
-        <v>48429</v>
+        <v>45472</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1702,41 +1702,41 @@
       <c r="AQ12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT12" s="13" t="s">
-        <v>57</v>
+      <c r="AR12" s="13">
+        <v>77132</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>91478</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>156004</v>
       </c>
       <c r="AU12" s="13">
-        <v>77132</v>
+        <v>161879</v>
       </c>
       <c r="AV12" s="13">
-        <v>91478</v>
+        <v>111532</v>
       </c>
       <c r="AW12" s="13">
-        <v>156004</v>
+        <v>103477</v>
       </c>
       <c r="AX12" s="13">
-        <v>161879</v>
+        <v>146554</v>
       </c>
       <c r="AY12" s="13">
-        <v>111532</v>
+        <v>88487</v>
       </c>
       <c r="AZ12" s="13">
-        <v>103477</v>
+        <v>84320</v>
       </c>
       <c r="BA12" s="13">
-        <v>146554</v>
+        <v>74521</v>
       </c>
       <c r="BB12" s="13">
-        <v>88487</v>
+        <v>110068</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1745,88 +1745,88 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>49211</v>
+        <v>2585</v>
       </c>
       <c r="F13" s="11">
-        <v>6449</v>
+        <v>2996</v>
       </c>
       <c r="G13" s="11">
-        <v>7150</v>
+        <v>56977</v>
       </c>
       <c r="H13" s="11">
-        <v>2585</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>2996</v>
+        <v>49318</v>
       </c>
       <c r="J13" s="11">
-        <v>56977</v>
+        <v>40179</v>
       </c>
       <c r="K13" s="11">
         <v>0</v>
       </c>
       <c r="L13" s="11">
-        <v>49318</v>
+        <v>47346</v>
       </c>
       <c r="M13" s="11">
-        <v>40179</v>
+        <v>45501</v>
       </c>
       <c r="N13" s="11">
-        <v>0</v>
+        <v>46226</v>
       </c>
       <c r="O13" s="11">
-        <v>47346</v>
+        <v>7004</v>
       </c>
       <c r="P13" s="11">
-        <v>45501</v>
+        <v>96373</v>
       </c>
       <c r="Q13" s="11">
-        <v>46226</v>
+        <v>52461</v>
       </c>
       <c r="R13" s="11">
-        <v>7004</v>
+        <v>12107</v>
       </c>
       <c r="S13" s="11">
-        <v>96373</v>
+        <v>3102</v>
       </c>
       <c r="T13" s="11">
-        <v>52461</v>
+        <v>79</v>
       </c>
       <c r="U13" s="11">
-        <v>12107</v>
+        <v>12031</v>
       </c>
       <c r="V13" s="11">
-        <v>3102</v>
+        <v>41974</v>
       </c>
       <c r="W13" s="11">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="X13" s="11">
-        <v>12031</v>
+        <v>800</v>
       </c>
       <c r="Y13" s="11">
-        <v>41974</v>
+        <v>93167</v>
       </c>
       <c r="Z13" s="11">
-        <v>229</v>
+        <v>50500</v>
       </c>
       <c r="AA13" s="11">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="11">
-        <v>93167</v>
+        <v>39093</v>
       </c>
       <c r="AC13" s="11">
-        <v>50500</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>39093</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG13" s="11" t="s">
         <v>57</v>
@@ -1895,7 +1895,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1978,50 +1978,50 @@
       <c r="AC14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF14" s="13" t="s">
-        <v>57</v>
+      <c r="AD14" s="13">
+        <v>112537</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>91717</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>75379</v>
       </c>
       <c r="AG14" s="13">
-        <v>112537</v>
+        <v>77229</v>
       </c>
       <c r="AH14" s="13">
-        <v>91717</v>
+        <v>32425</v>
       </c>
       <c r="AI14" s="13">
-        <v>75379</v>
+        <v>35809</v>
       </c>
       <c r="AJ14" s="13">
-        <v>77229</v>
+        <v>64462</v>
       </c>
       <c r="AK14" s="13">
-        <v>32425</v>
+        <v>24634</v>
       </c>
       <c r="AL14" s="13">
-        <v>35809</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="13">
-        <v>64462</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="13">
-        <v>24634</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="13">
         <v>0</v>
       </c>
-      <c r="AP14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>0</v>
+      <c r="AP14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS14" s="13" t="s">
         <v>57</v>
@@ -2054,7 +2054,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2137,50 +2137,50 @@
       <c r="AC15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF15" s="11" t="s">
-        <v>57</v>
+      <c r="AD15" s="11">
+        <v>33927</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>53361</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>59335</v>
       </c>
       <c r="AG15" s="11">
-        <v>33927</v>
+        <v>59420</v>
       </c>
       <c r="AH15" s="11">
-        <v>53361</v>
+        <v>41286</v>
       </c>
       <c r="AI15" s="11">
-        <v>59335</v>
+        <v>30888</v>
       </c>
       <c r="AJ15" s="11">
-        <v>59420</v>
+        <v>39978</v>
       </c>
       <c r="AK15" s="11">
-        <v>41286</v>
+        <v>23040</v>
       </c>
       <c r="AL15" s="11">
-        <v>30888</v>
+        <v>7171</v>
       </c>
       <c r="AM15" s="11">
-        <v>39978</v>
+        <v>6767</v>
       </c>
       <c r="AN15" s="11">
-        <v>23040</v>
+        <v>3835</v>
       </c>
       <c r="AO15" s="11">
-        <v>7171</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>6767</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>3835</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS15" s="11" t="s">
         <v>57</v>
@@ -2213,7 +2213,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2332,20 +2332,20 @@
       <c r="AO16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ16" s="13" t="s">
-        <v>57</v>
+      <c r="AP16" s="13">
+        <v>73590</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>123612</v>
       </c>
       <c r="AR16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS16" s="13">
-        <v>73590</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>123612</v>
+      <c r="AS16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU16" s="13" t="s">
         <v>57</v>
@@ -2372,7 +2372,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2381,17 +2381,17 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>319</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
         <v>1372</v>
       </c>
+      <c r="F17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="I17" s="11" t="s">
         <v>57</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2540,89 +2540,89 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>100332</v>
+        <v>46560</v>
       </c>
       <c r="F18" s="13">
-        <v>99275</v>
+        <v>90655</v>
       </c>
       <c r="G18" s="13">
-        <v>99472</v>
+        <v>121372</v>
       </c>
       <c r="H18" s="13">
-        <v>46560</v>
+        <v>67791</v>
       </c>
       <c r="I18" s="13">
-        <v>90655</v>
+        <v>136264</v>
       </c>
       <c r="J18" s="13">
-        <v>121372</v>
+        <v>114815</v>
       </c>
       <c r="K18" s="13">
-        <v>67791</v>
+        <v>122603</v>
       </c>
       <c r="L18" s="13">
-        <v>136264</v>
+        <v>130946</v>
       </c>
       <c r="M18" s="13">
-        <v>114815</v>
+        <v>126863</v>
       </c>
       <c r="N18" s="13">
-        <v>122603</v>
+        <v>111643</v>
       </c>
       <c r="O18" s="13">
-        <v>130946</v>
+        <v>103250</v>
       </c>
       <c r="P18" s="13">
-        <v>126863</v>
+        <v>87103</v>
       </c>
       <c r="Q18" s="13">
-        <v>111643</v>
+        <v>83324</v>
       </c>
       <c r="R18" s="13">
-        <v>103250</v>
+        <v>60647</v>
       </c>
       <c r="S18" s="13">
-        <v>87103</v>
+        <v>101070</v>
       </c>
       <c r="T18" s="13">
-        <v>83324</v>
+        <v>63439</v>
       </c>
       <c r="U18" s="13">
-        <v>60647</v>
+        <v>125729</v>
       </c>
       <c r="V18" s="13">
-        <v>101070</v>
+        <v>127570</v>
       </c>
       <c r="W18" s="13">
-        <v>63439</v>
+        <v>149790</v>
       </c>
       <c r="X18" s="13">
-        <v>125729</v>
+        <v>148772</v>
       </c>
       <c r="Y18" s="13">
-        <v>127570</v>
+        <v>115621</v>
       </c>
       <c r="Z18" s="13">
-        <v>149790</v>
+        <v>110483</v>
       </c>
       <c r="AA18" s="13">
-        <v>148772</v>
+        <v>136630</v>
       </c>
       <c r="AB18" s="13">
-        <v>115621</v>
+        <v>83967</v>
       </c>
       <c r="AC18" s="13">
-        <v>110483</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>136630</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>83967</v>
-      </c>
-      <c r="AF18" s="13">
         <v>94256</v>
       </c>
+      <c r="AD18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2699,28 +2699,28 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>5960</v>
+        <v>1762</v>
       </c>
       <c r="F19" s="11">
-        <v>9678</v>
+        <v>420</v>
       </c>
       <c r="G19" s="11">
-        <v>2382</v>
+        <v>813</v>
       </c>
       <c r="H19" s="11">
-        <v>1762</v>
+        <v>895</v>
       </c>
       <c r="I19" s="11">
-        <v>420</v>
+        <v>733</v>
       </c>
       <c r="J19" s="11">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="K19" s="11">
-        <v>895</v>
+        <v>0</v>
       </c>
       <c r="L19" s="11">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="M19" s="11">
         <v>0</v>
@@ -2732,19 +2732,19 @@
         <v>0</v>
       </c>
       <c r="P19" s="11">
-        <v>0</v>
+        <v>3353</v>
       </c>
       <c r="Q19" s="11">
         <v>0</v>
       </c>
-      <c r="R19" s="11">
-        <v>0</v>
-      </c>
-      <c r="S19" s="11">
-        <v>3353</v>
-      </c>
-      <c r="T19" s="11">
-        <v>0</v>
+      <c r="R19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U19" s="11" t="s">
         <v>57</v>
@@ -2849,7 +2849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2965,8 +2965,8 @@
       <c r="AN20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO20" s="13" t="s">
-        <v>57</v>
+      <c r="AO20" s="13">
+        <v>97193</v>
       </c>
       <c r="AP20" s="13" t="s">
         <v>57</v>
@@ -2974,8 +2974,8 @@
       <c r="AQ20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR20" s="13">
-        <v>97193</v>
+      <c r="AR20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS20" s="13" t="s">
         <v>57</v>
@@ -3008,7 +3008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3112,26 +3112,26 @@
       <c r="AJ21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK21" s="11" t="s">
-        <v>57</v>
+      <c r="AK21" s="11">
+        <v>86828</v>
       </c>
       <c r="AL21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM21" s="11" t="s">
-        <v>57</v>
+      <c r="AM21" s="11">
+        <v>97761</v>
       </c>
       <c r="AN21" s="11">
-        <v>86828</v>
+        <v>129978</v>
       </c>
       <c r="AO21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP21" s="11">
-        <v>97761</v>
-      </c>
-      <c r="AQ21" s="11">
-        <v>129978</v>
+      <c r="AP21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR21" s="11" t="s">
         <v>57</v>
@@ -3167,7 +3167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>68</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="BA22" s="15"/>
       <c r="BB22" s="15"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>69</v>
       </c>
@@ -3305,14 +3305,14 @@
       <c r="AC23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AD23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF23" s="17" t="s">
-        <v>57</v>
+      <c r="AD23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="17">
+        <v>0</v>
       </c>
       <c r="AG23" s="17">
         <v>0</v>
@@ -3381,164 +3381,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19">
-        <v>155822</v>
+        <v>52279</v>
       </c>
       <c r="F24" s="19">
-        <v>115402</v>
+        <v>102225</v>
       </c>
       <c r="G24" s="19">
-        <v>109004</v>
+        <v>192582</v>
       </c>
       <c r="H24" s="19">
-        <v>52279</v>
+        <v>87773</v>
       </c>
       <c r="I24" s="19">
-        <v>102225</v>
+        <v>199492</v>
       </c>
       <c r="J24" s="19">
-        <v>192582</v>
+        <v>166991</v>
       </c>
       <c r="K24" s="19">
-        <v>87773</v>
+        <v>128834</v>
       </c>
       <c r="L24" s="19">
-        <v>199492</v>
+        <v>189566</v>
       </c>
       <c r="M24" s="19">
-        <v>166991</v>
+        <v>200992</v>
       </c>
       <c r="N24" s="19">
-        <v>128834</v>
+        <v>179892</v>
       </c>
       <c r="O24" s="19">
-        <v>189566</v>
+        <v>136321</v>
       </c>
       <c r="P24" s="19">
-        <v>200992</v>
+        <v>228055</v>
       </c>
       <c r="Q24" s="19">
-        <v>179892</v>
+        <v>153991</v>
       </c>
       <c r="R24" s="19">
-        <v>136321</v>
+        <v>89895</v>
       </c>
       <c r="S24" s="19">
-        <v>228055</v>
+        <v>125228</v>
       </c>
       <c r="T24" s="19">
-        <v>153991</v>
+        <v>75759</v>
       </c>
       <c r="U24" s="19">
-        <v>89895</v>
+        <v>159687</v>
       </c>
       <c r="V24" s="19">
-        <v>125228</v>
+        <v>184845</v>
       </c>
       <c r="W24" s="19">
-        <v>75759</v>
+        <v>163616</v>
       </c>
       <c r="X24" s="19">
-        <v>159687</v>
+        <v>172795</v>
       </c>
       <c r="Y24" s="19">
-        <v>184845</v>
+        <v>240519</v>
       </c>
       <c r="Z24" s="19">
-        <v>163616</v>
+        <v>188578</v>
       </c>
       <c r="AA24" s="19">
-        <v>172795</v>
+        <v>155193</v>
       </c>
       <c r="AB24" s="19">
-        <v>240519</v>
+        <v>146130</v>
       </c>
       <c r="AC24" s="19">
-        <v>188578</v>
+        <v>113369</v>
       </c>
       <c r="AD24" s="19">
-        <v>155193</v>
+        <v>201370</v>
       </c>
       <c r="AE24" s="19">
-        <v>146130</v>
+        <v>160957</v>
       </c>
       <c r="AF24" s="19">
-        <v>113369</v>
+        <v>152511</v>
       </c>
       <c r="AG24" s="19">
-        <v>201370</v>
+        <v>175642</v>
       </c>
       <c r="AH24" s="19">
-        <v>160957</v>
+        <v>74150</v>
       </c>
       <c r="AI24" s="19">
-        <v>152511</v>
+        <v>82823</v>
       </c>
       <c r="AJ24" s="19">
-        <v>175642</v>
+        <v>136090</v>
       </c>
       <c r="AK24" s="19">
-        <v>74150</v>
+        <v>138272</v>
       </c>
       <c r="AL24" s="19">
-        <v>82823</v>
+        <v>20636</v>
       </c>
       <c r="AM24" s="19">
-        <v>136090</v>
+        <v>105097</v>
       </c>
       <c r="AN24" s="19">
-        <v>138272</v>
+        <v>190613</v>
       </c>
       <c r="AO24" s="19">
-        <v>20636</v>
+        <v>154279</v>
       </c>
       <c r="AP24" s="19">
-        <v>105097</v>
+        <v>89542</v>
       </c>
       <c r="AQ24" s="19">
-        <v>190613</v>
+        <v>215854</v>
       </c>
       <c r="AR24" s="19">
-        <v>154279</v>
+        <v>77132</v>
       </c>
       <c r="AS24" s="19">
-        <v>89542</v>
+        <v>155816</v>
       </c>
       <c r="AT24" s="19">
-        <v>215854</v>
+        <v>243833</v>
       </c>
       <c r="AU24" s="19">
-        <v>77132</v>
+        <v>175398</v>
       </c>
       <c r="AV24" s="19">
-        <v>155816</v>
+        <v>186778</v>
       </c>
       <c r="AW24" s="19">
-        <v>243833</v>
+        <v>121929</v>
       </c>
       <c r="AX24" s="19">
-        <v>175398</v>
+        <v>147267</v>
       </c>
       <c r="AY24" s="19">
-        <v>186778</v>
+        <v>136916</v>
       </c>
       <c r="AZ24" s="19">
-        <v>121929</v>
+        <v>92867</v>
       </c>
       <c r="BA24" s="19">
-        <v>147267</v>
+        <v>74707</v>
       </c>
       <c r="BB24" s="19">
-        <v>136916</v>
+        <v>155540</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3593,7 +3593,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3648,7 +3648,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3703,7 +3703,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>71</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3915,7 +3915,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>71</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3983,155 +3983,155 @@
       <c r="E31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>57</v>
+      <c r="F31" s="11">
+        <v>8154</v>
+      </c>
+      <c r="G31" s="11">
+        <v>13420</v>
+      </c>
+      <c r="H31" s="11">
+        <v>19087</v>
       </c>
       <c r="I31" s="11">
-        <v>8154</v>
+        <v>13177</v>
       </c>
       <c r="J31" s="11">
-        <v>13420</v>
+        <v>11997</v>
       </c>
       <c r="K31" s="11">
-        <v>19087</v>
+        <v>6231</v>
       </c>
       <c r="L31" s="11">
-        <v>13177</v>
+        <v>11274</v>
       </c>
       <c r="M31" s="11">
-        <v>11997</v>
+        <v>28628</v>
       </c>
       <c r="N31" s="11">
-        <v>6231</v>
+        <v>22023</v>
       </c>
       <c r="O31" s="11">
-        <v>11274</v>
+        <v>26067</v>
       </c>
       <c r="P31" s="11">
-        <v>28628</v>
+        <v>41226</v>
       </c>
       <c r="Q31" s="11">
-        <v>22023</v>
+        <v>18206</v>
       </c>
       <c r="R31" s="11">
-        <v>26067</v>
+        <v>17141</v>
       </c>
       <c r="S31" s="11">
-        <v>41226</v>
+        <v>21056</v>
       </c>
       <c r="T31" s="11">
-        <v>18206</v>
+        <v>12241</v>
       </c>
       <c r="U31" s="11">
-        <v>17141</v>
+        <v>21927</v>
       </c>
       <c r="V31" s="11">
-        <v>21056</v>
+        <v>15301</v>
       </c>
       <c r="W31" s="11">
-        <v>12241</v>
+        <v>13597</v>
       </c>
       <c r="X31" s="11">
-        <v>21927</v>
+        <v>23223</v>
       </c>
       <c r="Y31" s="11">
-        <v>15301</v>
+        <v>31731</v>
       </c>
       <c r="Z31" s="11">
-        <v>13597</v>
+        <v>27595</v>
       </c>
       <c r="AA31" s="11">
-        <v>23223</v>
+        <v>18563</v>
       </c>
       <c r="AB31" s="11">
-        <v>31731</v>
+        <v>23070</v>
       </c>
       <c r="AC31" s="11">
-        <v>27595</v>
+        <v>19113</v>
       </c>
       <c r="AD31" s="11">
-        <v>18563</v>
+        <v>54906</v>
       </c>
       <c r="AE31" s="11">
-        <v>23070</v>
+        <v>15879</v>
       </c>
       <c r="AF31" s="11">
-        <v>19113</v>
+        <v>17797</v>
       </c>
       <c r="AG31" s="11">
-        <v>54906</v>
+        <v>38993</v>
       </c>
       <c r="AH31" s="11">
-        <v>15879</v>
+        <v>439</v>
       </c>
       <c r="AI31" s="11">
-        <v>17797</v>
+        <v>16126</v>
       </c>
       <c r="AJ31" s="11">
-        <v>38993</v>
+        <v>31650</v>
       </c>
       <c r="AK31" s="11">
-        <v>439</v>
+        <v>3770</v>
       </c>
       <c r="AL31" s="11">
-        <v>16126</v>
+        <v>13465</v>
       </c>
       <c r="AM31" s="11">
-        <v>31650</v>
+        <v>569</v>
       </c>
       <c r="AN31" s="11">
-        <v>3770</v>
+        <v>56800</v>
       </c>
       <c r="AO31" s="11">
-        <v>13465</v>
+        <v>57086</v>
       </c>
       <c r="AP31" s="11">
-        <v>569</v>
+        <v>15952</v>
       </c>
       <c r="AQ31" s="11">
-        <v>56800</v>
+        <v>92242</v>
       </c>
       <c r="AR31" s="11">
-        <v>57086</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="11">
-        <v>15952</v>
+        <v>64338</v>
       </c>
       <c r="AT31" s="11">
-        <v>92242</v>
+        <v>87829</v>
       </c>
       <c r="AU31" s="11">
-        <v>0</v>
+        <v>13519</v>
       </c>
       <c r="AV31" s="11">
-        <v>64338</v>
+        <v>75246</v>
       </c>
       <c r="AW31" s="11">
-        <v>87829</v>
+        <v>18452</v>
       </c>
       <c r="AX31" s="11">
-        <v>13519</v>
+        <v>713</v>
       </c>
       <c r="AY31" s="11">
-        <v>75246</v>
+        <v>48429</v>
       </c>
       <c r="AZ31" s="11">
-        <v>18452</v>
+        <v>8547</v>
       </c>
       <c r="BA31" s="11">
-        <v>713</v>
+        <v>186</v>
       </c>
       <c r="BB31" s="11">
-        <v>48429</v>
+        <v>45472</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>58</v>
       </c>
@@ -4256,41 +4256,41 @@
       <c r="AQ32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT32" s="13" t="s">
-        <v>57</v>
+      <c r="AR32" s="13">
+        <v>76291</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>93129</v>
+      </c>
+      <c r="AT32" s="13">
+        <v>153154</v>
       </c>
       <c r="AU32" s="13">
-        <v>76291</v>
+        <v>162178</v>
       </c>
       <c r="AV32" s="13">
-        <v>93129</v>
+        <v>107706</v>
       </c>
       <c r="AW32" s="13">
-        <v>153154</v>
+        <v>112176</v>
       </c>
       <c r="AX32" s="13">
-        <v>162178</v>
+        <v>106193</v>
       </c>
       <c r="AY32" s="13">
-        <v>107706</v>
+        <v>93678</v>
       </c>
       <c r="AZ32" s="13">
-        <v>112176</v>
+        <v>85071</v>
       </c>
       <c r="BA32" s="13">
-        <v>106193</v>
+        <v>70696</v>
       </c>
       <c r="BB32" s="13">
-        <v>93678</v>
+        <v>108118</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
@@ -4299,88 +4299,88 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>49211</v>
+        <v>2585</v>
       </c>
       <c r="F33" s="11">
-        <v>6449</v>
+        <v>2996</v>
       </c>
       <c r="G33" s="11">
-        <v>7150</v>
+        <v>56977</v>
       </c>
       <c r="H33" s="11">
-        <v>2585</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
-        <v>2996</v>
+        <v>49318</v>
       </c>
       <c r="J33" s="11">
-        <v>56977</v>
+        <v>40179</v>
       </c>
       <c r="K33" s="11">
         <v>0</v>
       </c>
       <c r="L33" s="11">
-        <v>49318</v>
+        <v>47346</v>
       </c>
       <c r="M33" s="11">
-        <v>40179</v>
+        <v>45501</v>
       </c>
       <c r="N33" s="11">
-        <v>0</v>
+        <v>46226</v>
       </c>
       <c r="O33" s="11">
-        <v>47346</v>
+        <v>7004</v>
       </c>
       <c r="P33" s="11">
-        <v>45501</v>
+        <v>96373</v>
       </c>
       <c r="Q33" s="11">
-        <v>46226</v>
+        <v>52461</v>
       </c>
       <c r="R33" s="11">
-        <v>7004</v>
+        <v>12107</v>
       </c>
       <c r="S33" s="11">
-        <v>96373</v>
+        <v>3102</v>
       </c>
       <c r="T33" s="11">
-        <v>52461</v>
+        <v>79</v>
       </c>
       <c r="U33" s="11">
-        <v>12107</v>
+        <v>12031</v>
       </c>
       <c r="V33" s="11">
-        <v>3102</v>
+        <v>41974</v>
       </c>
       <c r="W33" s="11">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="X33" s="11">
-        <v>12031</v>
+        <v>800</v>
       </c>
       <c r="Y33" s="11">
-        <v>41974</v>
+        <v>93167</v>
       </c>
       <c r="Z33" s="11">
-        <v>229</v>
+        <v>50500</v>
       </c>
       <c r="AA33" s="11">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="11">
-        <v>93167</v>
+        <v>39093</v>
       </c>
       <c r="AC33" s="11">
-        <v>50500</v>
-      </c>
-      <c r="AD33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="11">
-        <v>39093</v>
-      </c>
-      <c r="AF33" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG33" s="11" t="s">
         <v>57</v>
@@ -4449,7 +4449,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>60</v>
       </c>
@@ -4532,50 +4532,50 @@
       <c r="AC34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF34" s="13" t="s">
-        <v>57</v>
+      <c r="AD34" s="13">
+        <v>69085</v>
+      </c>
+      <c r="AE34" s="13">
+        <v>96067</v>
+      </c>
+      <c r="AF34" s="13">
+        <v>75754</v>
       </c>
       <c r="AG34" s="13">
-        <v>69085</v>
+        <v>68454</v>
       </c>
       <c r="AH34" s="13">
-        <v>96067</v>
+        <v>43676</v>
       </c>
       <c r="AI34" s="13">
-        <v>75754</v>
+        <v>32359</v>
       </c>
       <c r="AJ34" s="13">
-        <v>68454</v>
+        <v>61312</v>
       </c>
       <c r="AK34" s="13">
-        <v>43676</v>
+        <v>21184</v>
       </c>
       <c r="AL34" s="13">
-        <v>32359</v>
+        <v>395</v>
       </c>
       <c r="AM34" s="13">
-        <v>61312</v>
+        <v>151</v>
       </c>
       <c r="AN34" s="13">
-        <v>21184</v>
+        <v>0</v>
       </c>
       <c r="AO34" s="13">
-        <v>395</v>
-      </c>
-      <c r="AP34" s="13">
-        <v>151</v>
-      </c>
-      <c r="AQ34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS34" s="13" t="s">
         <v>57</v>
@@ -4608,7 +4608,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>61</v>
       </c>
@@ -4691,50 +4691,50 @@
       <c r="AC35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF35" s="11" t="s">
-        <v>57</v>
+      <c r="AD35" s="11">
+        <v>33927</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>53361</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>59335</v>
       </c>
       <c r="AG35" s="11">
-        <v>33927</v>
+        <v>59420</v>
       </c>
       <c r="AH35" s="11">
-        <v>53361</v>
+        <v>41286</v>
       </c>
       <c r="AI35" s="11">
-        <v>59335</v>
+        <v>30888</v>
       </c>
       <c r="AJ35" s="11">
-        <v>59420</v>
+        <v>39978</v>
       </c>
       <c r="AK35" s="11">
-        <v>41286</v>
+        <v>23040</v>
       </c>
       <c r="AL35" s="11">
-        <v>30888</v>
+        <v>7171</v>
       </c>
       <c r="AM35" s="11">
-        <v>39978</v>
+        <v>6767</v>
       </c>
       <c r="AN35" s="11">
-        <v>23040</v>
+        <v>3835</v>
       </c>
       <c r="AO35" s="11">
-        <v>7171</v>
-      </c>
-      <c r="AP35" s="11">
-        <v>6767</v>
-      </c>
-      <c r="AQ35" s="11">
-        <v>3835</v>
-      </c>
-      <c r="AR35" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS35" s="11" t="s">
         <v>57</v>
@@ -4767,7 +4767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>62</v>
       </c>
@@ -4886,20 +4886,20 @@
       <c r="AO36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ36" s="13" t="s">
-        <v>57</v>
+      <c r="AP36" s="13">
+        <v>71579</v>
+      </c>
+      <c r="AQ36" s="13">
+        <v>124213</v>
       </c>
       <c r="AR36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS36" s="13">
-        <v>71579</v>
-      </c>
-      <c r="AT36" s="13">
-        <v>124213</v>
+      <c r="AS36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU36" s="13" t="s">
         <v>57</v>
@@ -4926,7 +4926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>63</v>
       </c>
@@ -4935,17 +4935,17 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>319</v>
-      </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11">
         <v>1372</v>
       </c>
+      <c r="F37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="I37" s="11" t="s">
         <v>57</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>64</v>
       </c>
@@ -5094,89 +5094,89 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>99582</v>
+        <v>51359</v>
       </c>
       <c r="F38" s="13">
-        <v>95975</v>
+        <v>87245</v>
       </c>
       <c r="G38" s="13">
-        <v>92047</v>
+        <v>128258</v>
       </c>
       <c r="H38" s="13">
-        <v>51359</v>
+        <v>66441</v>
       </c>
       <c r="I38" s="13">
-        <v>87245</v>
+        <v>137614</v>
       </c>
       <c r="J38" s="13">
-        <v>128258</v>
+        <v>113090</v>
       </c>
       <c r="K38" s="13">
-        <v>66441</v>
+        <v>129878</v>
       </c>
       <c r="L38" s="13">
-        <v>137614</v>
+        <v>124045</v>
       </c>
       <c r="M38" s="13">
-        <v>113090</v>
+        <v>125964</v>
       </c>
       <c r="N38" s="13">
-        <v>129878</v>
+        <v>108991</v>
       </c>
       <c r="O38" s="13">
-        <v>124045</v>
+        <v>99223</v>
       </c>
       <c r="P38" s="13">
-        <v>125964</v>
+        <v>90154</v>
       </c>
       <c r="Q38" s="13">
-        <v>108991</v>
+        <v>82899</v>
       </c>
       <c r="R38" s="13">
-        <v>99223</v>
+        <v>67621</v>
       </c>
       <c r="S38" s="13">
-        <v>90154</v>
+        <v>101070</v>
       </c>
       <c r="T38" s="13">
-        <v>82899</v>
+        <v>61114</v>
       </c>
       <c r="U38" s="13">
-        <v>67621</v>
+        <v>133005</v>
       </c>
       <c r="V38" s="13">
-        <v>101070</v>
+        <v>124345</v>
       </c>
       <c r="W38" s="13">
-        <v>61114</v>
+        <v>151290</v>
       </c>
       <c r="X38" s="13">
-        <v>133005</v>
+        <v>141347</v>
       </c>
       <c r="Y38" s="13">
-        <v>124345</v>
+        <v>118096</v>
       </c>
       <c r="Z38" s="13">
-        <v>151290</v>
+        <v>112282</v>
       </c>
       <c r="AA38" s="13">
-        <v>141347</v>
+        <v>134931</v>
       </c>
       <c r="AB38" s="13">
-        <v>118096</v>
+        <v>82542</v>
       </c>
       <c r="AC38" s="13">
-        <v>112282</v>
-      </c>
-      <c r="AD38" s="13">
-        <v>134931</v>
-      </c>
-      <c r="AE38" s="13">
-        <v>82542</v>
-      </c>
-      <c r="AF38" s="13">
         <v>104881</v>
       </c>
+      <c r="AD38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF38" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG38" s="13" t="s">
         <v>57</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>65</v>
       </c>
@@ -5253,28 +5253,28 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>5960</v>
+        <v>1762</v>
       </c>
       <c r="F39" s="11">
-        <v>9678</v>
+        <v>420</v>
       </c>
       <c r="G39" s="11">
-        <v>2382</v>
+        <v>813</v>
       </c>
       <c r="H39" s="11">
-        <v>1762</v>
+        <v>895</v>
       </c>
       <c r="I39" s="11">
-        <v>420</v>
+        <v>733</v>
       </c>
       <c r="J39" s="11">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="K39" s="11">
-        <v>895</v>
+        <v>0</v>
       </c>
       <c r="L39" s="11">
-        <v>733</v>
+        <v>0</v>
       </c>
       <c r="M39" s="11">
         <v>0</v>
@@ -5286,19 +5286,19 @@
         <v>0</v>
       </c>
       <c r="P39" s="11">
-        <v>0</v>
+        <v>3353</v>
       </c>
       <c r="Q39" s="11">
         <v>0</v>
       </c>
-      <c r="R39" s="11">
-        <v>0</v>
-      </c>
-      <c r="S39" s="11">
-        <v>3353</v>
-      </c>
-      <c r="T39" s="11">
-        <v>0</v>
+      <c r="R39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U39" s="11" t="s">
         <v>57</v>
@@ -5403,7 +5403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>66</v>
       </c>
@@ -5519,8 +5519,8 @@
       <c r="AN40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO40" s="13" t="s">
-        <v>57</v>
+      <c r="AO40" s="13">
+        <v>96295</v>
       </c>
       <c r="AP40" s="13" t="s">
         <v>57</v>
@@ -5528,8 +5528,8 @@
       <c r="AQ40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR40" s="13">
-        <v>96295</v>
+      <c r="AR40" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS40" s="13" t="s">
         <v>57</v>
@@ -5562,7 +5562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>67</v>
       </c>
@@ -5666,26 +5666,26 @@
       <c r="AJ41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK41" s="11" t="s">
-        <v>57</v>
+      <c r="AK41" s="11">
+        <v>86828</v>
       </c>
       <c r="AL41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM41" s="11" t="s">
-        <v>57</v>
+      <c r="AM41" s="11">
+        <v>100910</v>
       </c>
       <c r="AN41" s="11">
-        <v>86828</v>
+        <v>128477</v>
       </c>
       <c r="AO41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP41" s="11">
-        <v>100910</v>
-      </c>
-      <c r="AQ41" s="11">
-        <v>128477</v>
+      <c r="AP41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR41" s="11" t="s">
         <v>57</v>
@@ -5721,7 +5721,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>68</v>
       </c>
@@ -5778,7 +5778,7 @@
       <c r="BA42" s="15"/>
       <c r="BB42" s="15"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>69</v>
       </c>
@@ -5859,14 +5859,14 @@
       <c r="AC43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AD43" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE43" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF43" s="17" t="s">
-        <v>57</v>
+      <c r="AD43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="17">
+        <v>0</v>
       </c>
       <c r="AG43" s="17">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>72</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="BA44" s="15"/>
       <c r="BB44" s="15"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>73</v>
       </c>
@@ -6073,14 +6073,14 @@
       <c r="AC45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AD45" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE45" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF45" s="17" t="s">
-        <v>57</v>
+      <c r="AD45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="17">
+        <v>0</v>
       </c>
       <c r="AG45" s="17">
         <v>0</v>
@@ -6149,164 +6149,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19">
-        <v>155072</v>
+        <v>57078</v>
       </c>
       <c r="F46" s="19">
-        <v>112102</v>
+        <v>98815</v>
       </c>
       <c r="G46" s="19">
-        <v>101579</v>
+        <v>199468</v>
       </c>
       <c r="H46" s="19">
-        <v>57078</v>
+        <v>86423</v>
       </c>
       <c r="I46" s="19">
-        <v>98815</v>
+        <v>200842</v>
       </c>
       <c r="J46" s="19">
-        <v>199468</v>
+        <v>165266</v>
       </c>
       <c r="K46" s="19">
-        <v>86423</v>
+        <v>136109</v>
       </c>
       <c r="L46" s="19">
-        <v>200842</v>
+        <v>182665</v>
       </c>
       <c r="M46" s="19">
-        <v>165266</v>
+        <v>200093</v>
       </c>
       <c r="N46" s="19">
-        <v>136109</v>
+        <v>177240</v>
       </c>
       <c r="O46" s="19">
-        <v>182665</v>
+        <v>132294</v>
       </c>
       <c r="P46" s="19">
-        <v>200093</v>
+        <v>231106</v>
       </c>
       <c r="Q46" s="19">
-        <v>177240</v>
+        <v>153566</v>
       </c>
       <c r="R46" s="19">
-        <v>132294</v>
+        <v>96869</v>
       </c>
       <c r="S46" s="19">
-        <v>231106</v>
+        <v>125228</v>
       </c>
       <c r="T46" s="19">
-        <v>153566</v>
+        <v>73434</v>
       </c>
       <c r="U46" s="19">
-        <v>96869</v>
+        <v>166963</v>
       </c>
       <c r="V46" s="19">
-        <v>125228</v>
+        <v>181620</v>
       </c>
       <c r="W46" s="19">
-        <v>73434</v>
+        <v>165116</v>
       </c>
       <c r="X46" s="19">
-        <v>166963</v>
+        <v>165370</v>
       </c>
       <c r="Y46" s="19">
-        <v>181620</v>
+        <v>242994</v>
       </c>
       <c r="Z46" s="19">
-        <v>165116</v>
+        <v>190377</v>
       </c>
       <c r="AA46" s="19">
-        <v>165370</v>
+        <v>153494</v>
       </c>
       <c r="AB46" s="19">
-        <v>242994</v>
+        <v>144705</v>
       </c>
       <c r="AC46" s="19">
-        <v>190377</v>
+        <v>123994</v>
       </c>
       <c r="AD46" s="19">
-        <v>153494</v>
+        <v>157918</v>
       </c>
       <c r="AE46" s="19">
-        <v>144705</v>
+        <v>165307</v>
       </c>
       <c r="AF46" s="19">
-        <v>123994</v>
+        <v>152886</v>
       </c>
       <c r="AG46" s="19">
-        <v>157918</v>
+        <v>166867</v>
       </c>
       <c r="AH46" s="19">
-        <v>165307</v>
+        <v>85401</v>
       </c>
       <c r="AI46" s="19">
-        <v>152886</v>
+        <v>79373</v>
       </c>
       <c r="AJ46" s="19">
-        <v>166867</v>
+        <v>132940</v>
       </c>
       <c r="AK46" s="19">
-        <v>85401</v>
+        <v>134822</v>
       </c>
       <c r="AL46" s="19">
-        <v>79373</v>
+        <v>21031</v>
       </c>
       <c r="AM46" s="19">
-        <v>132940</v>
+        <v>108397</v>
       </c>
       <c r="AN46" s="19">
-        <v>134822</v>
+        <v>189112</v>
       </c>
       <c r="AO46" s="19">
-        <v>21031</v>
+        <v>153381</v>
       </c>
       <c r="AP46" s="19">
-        <v>108397</v>
+        <v>87531</v>
       </c>
       <c r="AQ46" s="19">
-        <v>189112</v>
+        <v>216455</v>
       </c>
       <c r="AR46" s="19">
-        <v>153381</v>
+        <v>76291</v>
       </c>
       <c r="AS46" s="19">
-        <v>87531</v>
+        <v>157467</v>
       </c>
       <c r="AT46" s="19">
-        <v>216455</v>
+        <v>240983</v>
       </c>
       <c r="AU46" s="19">
-        <v>76291</v>
+        <v>175697</v>
       </c>
       <c r="AV46" s="19">
-        <v>157467</v>
+        <v>182952</v>
       </c>
       <c r="AW46" s="19">
-        <v>240983</v>
+        <v>130628</v>
       </c>
       <c r="AX46" s="19">
-        <v>175697</v>
+        <v>106906</v>
       </c>
       <c r="AY46" s="19">
-        <v>182952</v>
+        <v>142107</v>
       </c>
       <c r="AZ46" s="19">
-        <v>130628</v>
+        <v>93618</v>
       </c>
       <c r="BA46" s="19">
-        <v>106906</v>
+        <v>70882</v>
       </c>
       <c r="BB46" s="19">
-        <v>142107</v>
+        <v>153590</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6361,7 +6361,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6416,7 +6416,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6471,7 +6471,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>74</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6683,7 +6683,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>74</v>
       </c>
@@ -6740,7 +6740,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>55</v>
       </c>
@@ -6751,155 +6751,155 @@
       <c r="E53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>57</v>
+      <c r="F53" s="11">
+        <v>5708</v>
+      </c>
+      <c r="G53" s="11">
+        <v>9394</v>
+      </c>
+      <c r="H53" s="11">
+        <v>13361</v>
       </c>
       <c r="I53" s="11">
-        <v>5708</v>
+        <v>9224</v>
       </c>
       <c r="J53" s="11">
-        <v>9394</v>
+        <v>8398</v>
       </c>
       <c r="K53" s="11">
-        <v>13361</v>
+        <v>4911</v>
       </c>
       <c r="L53" s="11">
-        <v>9224</v>
+        <v>10205</v>
       </c>
       <c r="M53" s="11">
-        <v>8398</v>
+        <v>27213</v>
       </c>
       <c r="N53" s="11">
-        <v>4911</v>
+        <v>20907</v>
       </c>
       <c r="O53" s="11">
-        <v>10205</v>
+        <v>23915</v>
       </c>
       <c r="P53" s="11">
-        <v>27213</v>
+        <v>37822</v>
       </c>
       <c r="Q53" s="11">
-        <v>20907</v>
+        <v>16703</v>
       </c>
       <c r="R53" s="11">
-        <v>23915</v>
+        <v>15725</v>
       </c>
       <c r="S53" s="11">
-        <v>37822</v>
+        <v>19318</v>
       </c>
       <c r="T53" s="11">
-        <v>16703</v>
+        <v>12336</v>
       </c>
       <c r="U53" s="11">
-        <v>15725</v>
+        <v>22128</v>
       </c>
       <c r="V53" s="11">
-        <v>19318</v>
+        <v>15441</v>
       </c>
       <c r="W53" s="11">
-        <v>12336</v>
+        <v>14396</v>
       </c>
       <c r="X53" s="11">
-        <v>22128</v>
+        <v>26912</v>
       </c>
       <c r="Y53" s="11">
-        <v>15441</v>
+        <v>38278</v>
       </c>
       <c r="Z53" s="11">
-        <v>14396</v>
+        <v>33348</v>
       </c>
       <c r="AA53" s="11">
-        <v>26912</v>
+        <v>22342</v>
       </c>
       <c r="AB53" s="11">
-        <v>38278</v>
+        <v>28193</v>
       </c>
       <c r="AC53" s="11">
-        <v>33348</v>
+        <v>23233</v>
       </c>
       <c r="AD53" s="11">
-        <v>22342</v>
+        <v>224969</v>
       </c>
       <c r="AE53" s="11">
-        <v>28193</v>
+        <v>54161</v>
       </c>
       <c r="AF53" s="11">
-        <v>23233</v>
+        <v>66002</v>
       </c>
       <c r="AG53" s="11">
-        <v>224969</v>
+        <v>181574</v>
       </c>
       <c r="AH53" s="11">
-        <v>54161</v>
+        <v>1870</v>
       </c>
       <c r="AI53" s="11">
-        <v>66002</v>
+        <v>83704</v>
       </c>
       <c r="AJ53" s="11">
-        <v>181574</v>
+        <v>185645</v>
       </c>
       <c r="AK53" s="11">
-        <v>1870</v>
+        <v>17978</v>
       </c>
       <c r="AL53" s="11">
-        <v>83704</v>
+        <v>66588</v>
       </c>
       <c r="AM53" s="11">
-        <v>185645</v>
+        <v>3076</v>
       </c>
       <c r="AN53" s="11">
-        <v>17978</v>
+        <v>295166</v>
       </c>
       <c r="AO53" s="11">
-        <v>66588</v>
+        <v>319516</v>
       </c>
       <c r="AP53" s="11">
-        <v>3076</v>
+        <v>93227</v>
       </c>
       <c r="AQ53" s="11">
-        <v>295166</v>
+        <v>508590</v>
       </c>
       <c r="AR53" s="11">
-        <v>319516</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="11">
-        <v>93227</v>
+        <v>379690</v>
       </c>
       <c r="AT53" s="11">
-        <v>508590</v>
+        <v>574384</v>
       </c>
       <c r="AU53" s="11">
-        <v>0</v>
+        <v>91125</v>
       </c>
       <c r="AV53" s="11">
-        <v>379690</v>
+        <v>582143</v>
       </c>
       <c r="AW53" s="11">
-        <v>574384</v>
+        <v>137287</v>
       </c>
       <c r="AX53" s="11">
-        <v>91125</v>
+        <v>4964</v>
       </c>
       <c r="AY53" s="11">
-        <v>582143</v>
+        <v>416134</v>
       </c>
       <c r="AZ53" s="11">
-        <v>137287</v>
+        <v>79316</v>
       </c>
       <c r="BA53" s="11">
-        <v>4964</v>
+        <v>1387</v>
       </c>
       <c r="BB53" s="11">
-        <v>416134</v>
+        <v>372215</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>58</v>
       </c>
@@ -7024,41 +7024,41 @@
       <c r="AQ54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT54" s="13" t="s">
-        <v>57</v>
+      <c r="AR54" s="13">
+        <v>385179</v>
+      </c>
+      <c r="AS54" s="13">
+        <v>470299</v>
+      </c>
+      <c r="AT54" s="13">
+        <v>866648</v>
       </c>
       <c r="AU54" s="13">
-        <v>385179</v>
+        <v>1228035</v>
       </c>
       <c r="AV54" s="13">
-        <v>470299</v>
+        <v>727087</v>
       </c>
       <c r="AW54" s="13">
-        <v>866648</v>
+        <v>733608</v>
       </c>
       <c r="AX54" s="13">
-        <v>1228034</v>
+        <v>669095</v>
       </c>
       <c r="AY54" s="13">
-        <v>727088</v>
+        <v>574762</v>
       </c>
       <c r="AZ54" s="13">
-        <v>733608</v>
+        <v>503015</v>
       </c>
       <c r="BA54" s="13">
-        <v>669095</v>
+        <v>387507</v>
       </c>
       <c r="BB54" s="13">
-        <v>574762</v>
+        <v>645067</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>59</v>
       </c>
@@ -7067,88 +7067,88 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>93260</v>
+        <v>1802</v>
       </c>
       <c r="F55" s="11">
-        <v>4778</v>
+        <v>2199</v>
       </c>
       <c r="G55" s="11">
-        <v>5086</v>
+        <v>105407</v>
       </c>
       <c r="H55" s="11">
-        <v>1802</v>
+        <v>0</v>
       </c>
       <c r="I55" s="11">
-        <v>2199</v>
+        <v>96644</v>
       </c>
       <c r="J55" s="11">
-        <v>105407</v>
+        <v>78258</v>
       </c>
       <c r="K55" s="11">
         <v>0</v>
       </c>
       <c r="L55" s="11">
-        <v>96644</v>
+        <v>92325</v>
       </c>
       <c r="M55" s="11">
-        <v>78258</v>
+        <v>84178</v>
       </c>
       <c r="N55" s="11">
-        <v>0</v>
+        <v>89214</v>
       </c>
       <c r="O55" s="11">
-        <v>92325</v>
+        <v>11767</v>
       </c>
       <c r="P55" s="11">
-        <v>84178</v>
+        <v>183156</v>
       </c>
       <c r="Q55" s="11">
-        <v>89214</v>
+        <v>87914</v>
       </c>
       <c r="R55" s="11">
-        <v>11767</v>
+        <v>23833</v>
       </c>
       <c r="S55" s="11">
-        <v>183156</v>
+        <v>6252</v>
       </c>
       <c r="T55" s="11">
-        <v>87914</v>
+        <v>160</v>
       </c>
       <c r="U55" s="11">
-        <v>23833</v>
+        <v>28505</v>
       </c>
       <c r="V55" s="11">
-        <v>6252</v>
+        <v>125855</v>
       </c>
       <c r="W55" s="11">
-        <v>160</v>
+        <v>585</v>
       </c>
       <c r="X55" s="11">
-        <v>28505</v>
+        <v>1965</v>
       </c>
       <c r="Y55" s="11">
-        <v>125855</v>
+        <v>370338</v>
       </c>
       <c r="Z55" s="11">
-        <v>585</v>
+        <v>258573</v>
       </c>
       <c r="AA55" s="11">
-        <v>1965</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="11">
-        <v>370338</v>
+        <v>168261</v>
       </c>
       <c r="AC55" s="11">
-        <v>258573</v>
-      </c>
-      <c r="AD55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="11">
-        <v>168261</v>
-      </c>
-      <c r="AF55" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG55" s="11" t="s">
         <v>57</v>
@@ -7217,7 +7217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>60</v>
       </c>
@@ -7300,50 +7300,50 @@
       <c r="AC56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF56" s="13" t="s">
-        <v>57</v>
+      <c r="AD56" s="13">
+        <v>153697</v>
+      </c>
+      <c r="AE56" s="13">
+        <v>212570</v>
+      </c>
+      <c r="AF56" s="13">
+        <v>170762</v>
       </c>
       <c r="AG56" s="13">
-        <v>153697</v>
+        <v>213243</v>
       </c>
       <c r="AH56" s="13">
-        <v>212570</v>
+        <v>134816</v>
       </c>
       <c r="AI56" s="13">
-        <v>170762</v>
+        <v>101850</v>
       </c>
       <c r="AJ56" s="13">
-        <v>213243</v>
+        <v>210292</v>
       </c>
       <c r="AK56" s="13">
-        <v>134816</v>
+        <v>75799</v>
       </c>
       <c r="AL56" s="13">
-        <v>101850</v>
+        <v>1532</v>
       </c>
       <c r="AM56" s="13">
-        <v>210292</v>
+        <v>413</v>
       </c>
       <c r="AN56" s="13">
-        <v>75799</v>
+        <v>0</v>
       </c>
       <c r="AO56" s="13">
-        <v>1532</v>
-      </c>
-      <c r="AP56" s="13">
-        <v>413</v>
-      </c>
-      <c r="AQ56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR56" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS56" s="13" t="s">
         <v>57</v>
@@ -7376,7 +7376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>61</v>
       </c>
@@ -7459,50 +7459,50 @@
       <c r="AC57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF57" s="11" t="s">
-        <v>57</v>
+      <c r="AD57" s="11">
+        <v>109104</v>
+      </c>
+      <c r="AE57" s="11">
+        <v>170884</v>
+      </c>
+      <c r="AF57" s="11">
+        <v>199951</v>
       </c>
       <c r="AG57" s="11">
-        <v>109104</v>
+        <v>258438</v>
       </c>
       <c r="AH57" s="11">
-        <v>170884</v>
+        <v>179961</v>
       </c>
       <c r="AI57" s="11">
-        <v>199951</v>
+        <v>136185</v>
       </c>
       <c r="AJ57" s="11">
-        <v>258438</v>
+        <v>180893</v>
       </c>
       <c r="AK57" s="11">
-        <v>179961</v>
+        <v>115569</v>
       </c>
       <c r="AL57" s="11">
-        <v>136185</v>
+        <v>38574</v>
       </c>
       <c r="AM57" s="11">
-        <v>180893</v>
+        <v>36676</v>
       </c>
       <c r="AN57" s="11">
-        <v>115569</v>
+        <v>21180</v>
       </c>
       <c r="AO57" s="11">
-        <v>38574</v>
-      </c>
-      <c r="AP57" s="11">
-        <v>36676</v>
-      </c>
-      <c r="AQ57" s="11">
-        <v>21180</v>
-      </c>
-      <c r="AR57" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS57" s="11" t="s">
         <v>57</v>
@@ -7535,7 +7535,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>62</v>
       </c>
@@ -7654,20 +7654,20 @@
       <c r="AO58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP58" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ58" s="13" t="s">
-        <v>57</v>
+      <c r="AP58" s="13">
+        <v>299657</v>
+      </c>
+      <c r="AQ58" s="13">
+        <v>588651</v>
       </c>
       <c r="AR58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS58" s="13">
-        <v>299657</v>
-      </c>
-      <c r="AT58" s="13">
-        <v>588651</v>
+      <c r="AS58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT58" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU58" s="13" t="s">
         <v>57</v>
@@ -7694,7 +7694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>63</v>
       </c>
@@ -7703,17 +7703,17 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>255</v>
-      </c>
-      <c r="F59" s="11">
-        <v>0</v>
-      </c>
-      <c r="G59" s="11">
-        <v>0</v>
-      </c>
-      <c r="H59" s="11">
         <v>961</v>
       </c>
+      <c r="F59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="I59" s="11" t="s">
         <v>57</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>64</v>
       </c>
@@ -7862,89 +7862,89 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>114656</v>
+        <v>57587</v>
       </c>
       <c r="F60" s="13">
-        <v>107931</v>
+        <v>95541</v>
       </c>
       <c r="G60" s="13">
-        <v>106274</v>
+        <v>145625</v>
       </c>
       <c r="H60" s="13">
-        <v>57587</v>
+        <v>78881</v>
       </c>
       <c r="I60" s="13">
-        <v>95541</v>
+        <v>165160</v>
       </c>
       <c r="J60" s="13">
-        <v>145625</v>
+        <v>144090</v>
       </c>
       <c r="K60" s="13">
-        <v>78881</v>
+        <v>217276</v>
       </c>
       <c r="L60" s="13">
-        <v>165160</v>
+        <v>234160</v>
       </c>
       <c r="M60" s="13">
-        <v>144090</v>
+        <v>237483</v>
       </c>
       <c r="N60" s="13">
-        <v>217276</v>
+        <v>203753</v>
       </c>
       <c r="O60" s="13">
-        <v>234160</v>
+        <v>180138</v>
       </c>
       <c r="P60" s="13">
-        <v>237483</v>
+        <v>158922</v>
       </c>
       <c r="Q60" s="13">
-        <v>203753</v>
+        <v>136570</v>
       </c>
       <c r="R60" s="13">
-        <v>180138</v>
+        <v>117825</v>
       </c>
       <c r="S60" s="13">
-        <v>158922</v>
+        <v>177576</v>
       </c>
       <c r="T60" s="13">
-        <v>136570</v>
+        <v>110599</v>
       </c>
       <c r="U60" s="13">
-        <v>117825</v>
+        <v>235525</v>
       </c>
       <c r="V60" s="13">
-        <v>177576</v>
+        <v>229052</v>
       </c>
       <c r="W60" s="13">
-        <v>110599</v>
+        <v>342768</v>
       </c>
       <c r="X60" s="13">
-        <v>235525</v>
+        <v>341931</v>
       </c>
       <c r="Y60" s="13">
-        <v>229052</v>
+        <v>292639</v>
       </c>
       <c r="Z60" s="13">
-        <v>342768</v>
+        <v>285021</v>
       </c>
       <c r="AA60" s="13">
-        <v>341931</v>
+        <v>354668</v>
       </c>
       <c r="AB60" s="13">
-        <v>292639</v>
+        <v>203319</v>
       </c>
       <c r="AC60" s="13">
-        <v>285021</v>
-      </c>
-      <c r="AD60" s="13">
-        <v>354668</v>
-      </c>
-      <c r="AE60" s="13">
-        <v>203319</v>
-      </c>
-      <c r="AF60" s="13">
         <v>256300</v>
       </c>
+      <c r="AD60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF60" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG60" s="13" t="s">
         <v>57</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>65</v>
       </c>
@@ -8021,28 +8021,28 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>5158</v>
+        <v>1915</v>
       </c>
       <c r="F61" s="11">
-        <v>8288</v>
+        <v>462</v>
       </c>
       <c r="G61" s="11">
-        <v>2552</v>
+        <v>749</v>
       </c>
       <c r="H61" s="11">
-        <v>1915</v>
+        <v>830</v>
       </c>
       <c r="I61" s="11">
-        <v>462</v>
+        <v>688</v>
       </c>
       <c r="J61" s="11">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="K61" s="11">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="L61" s="11">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="M61" s="11">
         <v>0</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="P61" s="11">
-        <v>0</v>
+        <v>9693</v>
       </c>
       <c r="Q61" s="11">
         <v>0</v>
       </c>
-      <c r="R61" s="11">
-        <v>0</v>
-      </c>
-      <c r="S61" s="11">
-        <v>9693</v>
-      </c>
-      <c r="T61" s="11">
-        <v>0</v>
+      <c r="R61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U61" s="11" t="s">
         <v>57</v>
@@ -8171,7 +8171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>66</v>
       </c>
@@ -8287,8 +8287,8 @@
       <c r="AN62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO62" s="13" t="s">
-        <v>57</v>
+      <c r="AO62" s="13">
+        <v>340894</v>
       </c>
       <c r="AP62" s="13" t="s">
         <v>57</v>
@@ -8296,8 +8296,8 @@
       <c r="AQ62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR62" s="13">
-        <v>340894</v>
+      <c r="AR62" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS62" s="13" t="s">
         <v>57</v>
@@ -8330,7 +8330,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>67</v>
       </c>
@@ -8434,26 +8434,26 @@
       <c r="AJ63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK63" s="11" t="s">
-        <v>57</v>
+      <c r="AK63" s="11">
+        <v>385195</v>
       </c>
       <c r="AL63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM63" s="11" t="s">
-        <v>57</v>
+      <c r="AM63" s="11">
+        <v>389219</v>
       </c>
       <c r="AN63" s="11">
-        <v>385195</v>
+        <v>512433</v>
       </c>
       <c r="AO63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP63" s="11">
-        <v>389219</v>
-      </c>
-      <c r="AQ63" s="11">
-        <v>512433</v>
+      <c r="AP63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR63" s="11" t="s">
         <v>57</v>
@@ -8489,7 +8489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>76</v>
       </c>
@@ -8546,7 +8546,7 @@
       <c r="BA64" s="15"/>
       <c r="BB64" s="15"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="16" t="s">
         <v>69</v>
       </c>
@@ -8629,14 +8629,14 @@
       <c r="AC65" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AD65" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE65" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF65" s="17" t="s">
-        <v>57</v>
+      <c r="AD65" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="17">
+        <v>0</v>
       </c>
       <c r="AG65" s="17">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
         <v>77</v>
       </c>
@@ -8762,7 +8762,7 @@
       <c r="BA66" s="15"/>
       <c r="BB66" s="15"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
         <v>73</v>
       </c>
@@ -8845,14 +8845,14 @@
       <c r="AC67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AD67" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE67" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF67" s="17" t="s">
-        <v>57</v>
+      <c r="AD67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="17">
+        <v>0</v>
       </c>
       <c r="AG67" s="17">
         <v>0</v>
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>78</v>
       </c>
@@ -8978,7 +8978,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>79</v>
       </c>
@@ -9061,14 +9061,14 @@
       <c r="AC69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF69" s="11" t="s">
-        <v>57</v>
+      <c r="AD69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="11">
+        <v>0</v>
       </c>
       <c r="AG69" s="11">
         <v>0</v>
@@ -9137,164 +9137,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19">
-        <v>213329</v>
+        <v>62265</v>
       </c>
       <c r="F70" s="19">
-        <v>120997</v>
+        <v>103910</v>
       </c>
       <c r="G70" s="19">
-        <v>113912</v>
+        <v>261175</v>
       </c>
       <c r="H70" s="19">
-        <v>62265</v>
+        <v>93072</v>
       </c>
       <c r="I70" s="19">
-        <v>103910</v>
+        <v>271716</v>
       </c>
       <c r="J70" s="19">
-        <v>261175</v>
+        <v>230746</v>
       </c>
       <c r="K70" s="19">
-        <v>93072</v>
+        <v>222187</v>
       </c>
       <c r="L70" s="19">
-        <v>271716</v>
+        <v>336690</v>
       </c>
       <c r="M70" s="19">
-        <v>230746</v>
+        <v>348874</v>
       </c>
       <c r="N70" s="19">
-        <v>222187</v>
+        <v>313874</v>
       </c>
       <c r="O70" s="19">
-        <v>336690</v>
+        <v>215820</v>
       </c>
       <c r="P70" s="19">
-        <v>348874</v>
+        <v>389593</v>
       </c>
       <c r="Q70" s="19">
-        <v>313874</v>
+        <v>241187</v>
       </c>
       <c r="R70" s="19">
-        <v>215820</v>
+        <v>157383</v>
       </c>
       <c r="S70" s="19">
-        <v>389593</v>
+        <v>203145</v>
       </c>
       <c r="T70" s="19">
-        <v>241187</v>
+        <v>123095</v>
       </c>
       <c r="U70" s="19">
-        <v>157383</v>
+        <v>286158</v>
       </c>
       <c r="V70" s="19">
-        <v>203145</v>
+        <v>370348</v>
       </c>
       <c r="W70" s="19">
-        <v>123095</v>
+        <v>357749</v>
       </c>
       <c r="X70" s="19">
-        <v>286158</v>
+        <v>370808</v>
       </c>
       <c r="Y70" s="19">
-        <v>370348</v>
+        <v>701255</v>
       </c>
       <c r="Z70" s="19">
-        <v>357749</v>
+        <v>576942</v>
       </c>
       <c r="AA70" s="19">
-        <v>370808</v>
+        <v>377010</v>
       </c>
       <c r="AB70" s="19">
-        <v>701255</v>
+        <v>399773</v>
       </c>
       <c r="AC70" s="19">
-        <v>576942</v>
+        <v>279533</v>
       </c>
       <c r="AD70" s="19">
-        <v>377010</v>
+        <v>487770</v>
       </c>
       <c r="AE70" s="19">
-        <v>399773</v>
+        <v>437615</v>
       </c>
       <c r="AF70" s="19">
-        <v>279533</v>
+        <v>436715</v>
       </c>
       <c r="AG70" s="19">
-        <v>487770</v>
+        <v>653255</v>
       </c>
       <c r="AH70" s="19">
-        <v>437615</v>
+        <v>316647</v>
       </c>
       <c r="AI70" s="19">
-        <v>436715</v>
+        <v>321739</v>
       </c>
       <c r="AJ70" s="19">
-        <v>653255</v>
+        <v>576830</v>
       </c>
       <c r="AK70" s="19">
-        <v>316647</v>
+        <v>594541</v>
       </c>
       <c r="AL70" s="19">
-        <v>321739</v>
+        <v>106694</v>
       </c>
       <c r="AM70" s="19">
-        <v>576830</v>
+        <v>429384</v>
       </c>
       <c r="AN70" s="19">
-        <v>594541</v>
+        <v>828779</v>
       </c>
       <c r="AO70" s="19">
-        <v>106694</v>
+        <v>660410</v>
       </c>
       <c r="AP70" s="19">
-        <v>429384</v>
+        <v>392884</v>
       </c>
       <c r="AQ70" s="19">
-        <v>828779</v>
+        <v>1097241</v>
       </c>
       <c r="AR70" s="19">
-        <v>660410</v>
+        <v>385179</v>
       </c>
       <c r="AS70" s="19">
-        <v>392884</v>
+        <v>849989</v>
       </c>
       <c r="AT70" s="19">
-        <v>1097241</v>
+        <v>1441032</v>
       </c>
       <c r="AU70" s="19">
-        <v>385179</v>
+        <v>1319160</v>
       </c>
       <c r="AV70" s="19">
-        <v>849989</v>
+        <v>1309230</v>
       </c>
       <c r="AW70" s="19">
-        <v>1441032</v>
+        <v>870895</v>
       </c>
       <c r="AX70" s="19">
-        <v>1319159</v>
+        <v>674059</v>
       </c>
       <c r="AY70" s="19">
-        <v>1309231</v>
+        <v>990896</v>
       </c>
       <c r="AZ70" s="19">
-        <v>870895</v>
+        <v>582331</v>
       </c>
       <c r="BA70" s="19">
-        <v>674059</v>
+        <v>388894</v>
       </c>
       <c r="BB70" s="19">
-        <v>990896</v>
+        <v>1017282</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9349,7 +9349,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9404,7 +9404,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9459,7 +9459,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>80</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9671,7 +9671,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>81</v>
       </c>
@@ -9728,7 +9728,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>55</v>
       </c>
@@ -9739,155 +9739,155 @@
       <c r="E77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>57</v>
+      <c r="F77" s="11">
+        <v>700025</v>
+      </c>
+      <c r="G77" s="11">
+        <v>700000</v>
+      </c>
+      <c r="H77" s="11">
+        <v>700005</v>
       </c>
       <c r="I77" s="11">
-        <v>700025</v>
+        <v>700008</v>
       </c>
       <c r="J77" s="11">
-        <v>700000</v>
+        <v>700008</v>
       </c>
       <c r="K77" s="11">
-        <v>700005</v>
+        <v>788156</v>
       </c>
       <c r="L77" s="11">
-        <v>700008</v>
+        <v>905180</v>
       </c>
       <c r="M77" s="11">
-        <v>700008</v>
+        <v>950573</v>
       </c>
       <c r="N77" s="11">
-        <v>788156</v>
+        <v>949326</v>
       </c>
       <c r="O77" s="11">
-        <v>905180</v>
+        <v>917444</v>
       </c>
       <c r="P77" s="11">
-        <v>950573</v>
+        <v>917431</v>
       </c>
       <c r="Q77" s="11">
-        <v>949326</v>
+        <v>917445</v>
       </c>
       <c r="R77" s="11">
-        <v>917444</v>
+        <v>917408</v>
       </c>
       <c r="S77" s="11">
-        <v>917431</v>
+        <v>917439</v>
       </c>
       <c r="T77" s="11">
-        <v>917445</v>
+        <v>1007792</v>
       </c>
       <c r="U77" s="11">
-        <v>917408</v>
+        <v>1009167</v>
       </c>
       <c r="V77" s="11">
-        <v>917439</v>
+        <v>1009150</v>
       </c>
       <c r="W77" s="11">
-        <v>1007792</v>
+        <v>1058763</v>
       </c>
       <c r="X77" s="11">
-        <v>1009167</v>
+        <v>1158851</v>
       </c>
       <c r="Y77" s="11">
-        <v>1009150</v>
+        <v>1206328</v>
       </c>
       <c r="Z77" s="11">
-        <v>1058763</v>
+        <v>1208480</v>
       </c>
       <c r="AA77" s="11">
-        <v>1158851</v>
+        <v>1203577</v>
       </c>
       <c r="AB77" s="11">
-        <v>1206328</v>
+        <v>1222063</v>
       </c>
       <c r="AC77" s="11">
-        <v>1208480</v>
+        <v>1215560</v>
       </c>
       <c r="AD77" s="11">
-        <v>1203577</v>
+        <v>4097348</v>
       </c>
       <c r="AE77" s="11">
-        <v>1222063</v>
+        <v>3410857</v>
       </c>
       <c r="AF77" s="11">
-        <v>1215560</v>
+        <v>3708603</v>
       </c>
       <c r="AG77" s="11">
-        <v>4097348</v>
+        <v>4656579</v>
       </c>
       <c r="AH77" s="11">
-        <v>3410857</v>
+        <v>4259681</v>
       </c>
       <c r="AI77" s="11">
-        <v>3708603</v>
+        <v>5190624</v>
       </c>
       <c r="AJ77" s="11">
-        <v>4656579</v>
+        <v>5865561</v>
       </c>
       <c r="AK77" s="11">
-        <v>4259681</v>
+        <v>4768700</v>
       </c>
       <c r="AL77" s="11">
-        <v>5190624</v>
+        <v>4945266</v>
       </c>
       <c r="AM77" s="11">
-        <v>5865561</v>
+        <v>5405975</v>
       </c>
       <c r="AN77" s="11">
-        <v>4768700</v>
+        <v>5196585</v>
       </c>
       <c r="AO77" s="11">
-        <v>4945266</v>
+        <v>5597099</v>
       </c>
       <c r="AP77" s="11">
-        <v>5405975</v>
+        <v>5844220</v>
       </c>
       <c r="AQ77" s="11">
-        <v>5196585</v>
-      </c>
-      <c r="AR77" s="11">
-        <v>5597099</v>
+        <v>5513649</v>
+      </c>
+      <c r="AR77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS77" s="11">
-        <v>5844220</v>
+        <v>5901489</v>
       </c>
       <c r="AT77" s="11">
-        <v>5513649</v>
-      </c>
-      <c r="AU77" s="11" t="s">
-        <v>57</v>
+        <v>6539799</v>
+      </c>
+      <c r="AU77" s="11">
+        <v>6740513</v>
       </c>
       <c r="AV77" s="11">
-        <v>5901489</v>
+        <v>7736531</v>
       </c>
       <c r="AW77" s="11">
-        <v>6539799</v>
+        <v>7440223</v>
       </c>
       <c r="AX77" s="11">
-        <v>6740513</v>
+        <v>6962132</v>
       </c>
       <c r="AY77" s="11">
-        <v>7736531</v>
+        <v>8592661</v>
       </c>
       <c r="AZ77" s="11">
-        <v>7440223</v>
+        <v>9279981</v>
       </c>
       <c r="BA77" s="11">
-        <v>6962132</v>
+        <v>7456989</v>
       </c>
       <c r="BB77" s="11">
-        <v>8592661</v>
+        <v>8185587</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>58</v>
       </c>
@@ -10012,41 +10012,41 @@
       <c r="AQ78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT78" s="13" t="s">
-        <v>57</v>
+      <c r="AR78" s="13">
+        <v>5048813</v>
+      </c>
+      <c r="AS78" s="13">
+        <v>5049974</v>
+      </c>
+      <c r="AT78" s="13">
+        <v>5658670</v>
       </c>
       <c r="AU78" s="13">
-        <v>5048813</v>
+        <v>7572143</v>
       </c>
       <c r="AV78" s="13">
-        <v>5049974</v>
+        <v>6750664</v>
       </c>
       <c r="AW78" s="13">
-        <v>5658670</v>
+        <v>6539795</v>
       </c>
       <c r="AX78" s="13">
-        <v>7572141</v>
+        <v>6300745</v>
       </c>
       <c r="AY78" s="13">
-        <v>6750665</v>
+        <v>6135507</v>
       </c>
       <c r="AZ78" s="13">
-        <v>6539795</v>
+        <v>5912885</v>
       </c>
       <c r="BA78" s="13">
-        <v>6300745</v>
+        <v>5481314</v>
       </c>
       <c r="BB78" s="13">
-        <v>6135507</v>
+        <v>5966324</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>59</v>
       </c>
@@ -10055,88 +10055,88 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>1895105</v>
+        <v>697099</v>
       </c>
       <c r="F79" s="11">
-        <v>740890</v>
+        <v>733979</v>
       </c>
       <c r="G79" s="11">
-        <v>711329</v>
+        <v>1849992</v>
       </c>
       <c r="H79" s="11">
-        <v>697099</v>
+        <v>0</v>
       </c>
       <c r="I79" s="11">
-        <v>733979</v>
+        <v>1959609</v>
       </c>
       <c r="J79" s="11">
-        <v>1849992</v>
+        <v>1947734</v>
       </c>
       <c r="K79" s="11">
         <v>0</v>
       </c>
       <c r="L79" s="11">
-        <v>1959609</v>
+        <v>1950006</v>
       </c>
       <c r="M79" s="11">
-        <v>1947734</v>
+        <v>1850025</v>
       </c>
       <c r="N79" s="11">
-        <v>0</v>
+        <v>1929953</v>
       </c>
       <c r="O79" s="11">
-        <v>1950006</v>
+        <v>1680040</v>
       </c>
       <c r="P79" s="11">
-        <v>1850025</v>
+        <v>1900491</v>
       </c>
       <c r="Q79" s="11">
-        <v>1929953</v>
+        <v>1675797</v>
       </c>
       <c r="R79" s="11">
-        <v>1680040</v>
+        <v>1968522</v>
       </c>
       <c r="S79" s="11">
-        <v>1900491</v>
+        <v>2015423</v>
       </c>
       <c r="T79" s="11">
-        <v>1675797</v>
+        <v>2026203</v>
       </c>
       <c r="U79" s="11">
-        <v>1968522</v>
+        <v>2369296</v>
       </c>
       <c r="V79" s="11">
-        <v>2015423</v>
+        <v>2998404</v>
       </c>
       <c r="W79" s="11">
-        <v>2026203</v>
+        <v>2554585</v>
       </c>
       <c r="X79" s="11">
-        <v>2369296</v>
+        <v>2456250</v>
       </c>
       <c r="Y79" s="11">
-        <v>2998404</v>
+        <v>3974991</v>
       </c>
       <c r="Z79" s="11">
-        <v>2554585</v>
+        <v>5120257</v>
       </c>
       <c r="AA79" s="11">
-        <v>2456250</v>
+        <v>0</v>
       </c>
       <c r="AB79" s="11">
-        <v>3974991</v>
+        <v>4304121</v>
       </c>
       <c r="AC79" s="11">
-        <v>5120257</v>
-      </c>
-      <c r="AD79" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE79" s="11">
-        <v>4304121</v>
-      </c>
-      <c r="AF79" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG79" s="11" t="s">
         <v>57</v>
@@ -10205,7 +10205,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
@@ -10288,45 +10288,45 @@
       <c r="AC80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF80" s="13" t="s">
-        <v>57</v>
+      <c r="AD80" s="13">
+        <v>2224752</v>
+      </c>
+      <c r="AE80" s="13">
+        <v>2212727</v>
+      </c>
+      <c r="AF80" s="13">
+        <v>2254165</v>
       </c>
       <c r="AG80" s="13">
-        <v>2224752</v>
+        <v>3115128</v>
       </c>
       <c r="AH80" s="13">
-        <v>2212727</v>
+        <v>3086730</v>
       </c>
       <c r="AI80" s="13">
-        <v>2254165</v>
+        <v>3147501</v>
       </c>
       <c r="AJ80" s="13">
-        <v>3115128</v>
+        <v>3429867</v>
       </c>
       <c r="AK80" s="13">
-        <v>3086730</v>
+        <v>3578125</v>
       </c>
       <c r="AL80" s="13">
-        <v>3147501</v>
+        <v>3878481</v>
       </c>
       <c r="AM80" s="13">
-        <v>3429867</v>
-      </c>
-      <c r="AN80" s="13">
-        <v>3578125</v>
-      </c>
-      <c r="AO80" s="13">
-        <v>3878481</v>
-      </c>
-      <c r="AP80" s="13">
         <v>2735099</v>
       </c>
+      <c r="AN80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP80" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ80" s="13" t="s">
         <v>57</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>61</v>
       </c>
@@ -10447,48 +10447,48 @@
       <c r="AC81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF81" s="11" t="s">
-        <v>57</v>
+      <c r="AD81" s="11">
+        <v>3215846</v>
+      </c>
+      <c r="AE81" s="11">
+        <v>3202414</v>
+      </c>
+      <c r="AF81" s="11">
+        <v>3369866</v>
       </c>
       <c r="AG81" s="11">
-        <v>3215846</v>
+        <v>4349344</v>
       </c>
       <c r="AH81" s="11">
-        <v>3202414</v>
+        <v>4358887</v>
       </c>
       <c r="AI81" s="11">
-        <v>3369866</v>
+        <v>4408994</v>
       </c>
       <c r="AJ81" s="11">
-        <v>4349344</v>
+        <v>4524814</v>
       </c>
       <c r="AK81" s="11">
-        <v>4358887</v>
+        <v>5016016</v>
       </c>
       <c r="AL81" s="11">
-        <v>4408994</v>
+        <v>5379166</v>
       </c>
       <c r="AM81" s="11">
-        <v>4524814</v>
+        <v>5419832</v>
       </c>
       <c r="AN81" s="11">
-        <v>5016016</v>
-      </c>
-      <c r="AO81" s="11">
-        <v>5379166</v>
-      </c>
-      <c r="AP81" s="11">
-        <v>5419832</v>
-      </c>
-      <c r="AQ81" s="11">
         <v>5522816</v>
       </c>
+      <c r="AO81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ81" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AR81" s="11" t="s">
         <v>57</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>62</v>
       </c>
@@ -10642,20 +10642,20 @@
       <c r="AO82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ82" s="13" t="s">
-        <v>57</v>
+      <c r="AP82" s="13">
+        <v>4186381</v>
+      </c>
+      <c r="AQ82" s="13">
+        <v>4739045</v>
       </c>
       <c r="AR82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS82" s="13">
-        <v>4186381</v>
-      </c>
-      <c r="AT82" s="13">
-        <v>4739045</v>
+      <c r="AS82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU82" s="13" t="s">
         <v>57</v>
@@ -10682,7 +10682,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>63</v>
       </c>
@@ -10691,17 +10691,17 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>799373</v>
-      </c>
-      <c r="F83" s="11">
-        <v>0</v>
-      </c>
-      <c r="G83" s="11">
-        <v>0</v>
-      </c>
-      <c r="H83" s="11">
         <v>700437</v>
       </c>
+      <c r="F83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="I83" s="11" t="s">
         <v>57</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>64</v>
       </c>
@@ -10850,89 +10850,89 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>1151373</v>
+        <v>1121264</v>
       </c>
       <c r="F84" s="13">
-        <v>1124574</v>
+        <v>1095089</v>
       </c>
       <c r="G84" s="13">
-        <v>1154562</v>
+        <v>1135407</v>
       </c>
       <c r="H84" s="13">
-        <v>1121264</v>
+        <v>1187234</v>
       </c>
       <c r="I84" s="13">
-        <v>1095089</v>
+        <v>1200169</v>
       </c>
       <c r="J84" s="13">
-        <v>1135407</v>
+        <v>1274118</v>
       </c>
       <c r="K84" s="13">
-        <v>1187234</v>
+        <v>1672924</v>
       </c>
       <c r="L84" s="13">
-        <v>1200169</v>
+        <v>1887702</v>
       </c>
       <c r="M84" s="13">
-        <v>1274118</v>
+        <v>1885324</v>
       </c>
       <c r="N84" s="13">
-        <v>1672924</v>
+        <v>1869448</v>
       </c>
       <c r="O84" s="13">
-        <v>1887702</v>
+        <v>1815486</v>
       </c>
       <c r="P84" s="13">
-        <v>1885324</v>
+        <v>1762784</v>
       </c>
       <c r="Q84" s="13">
-        <v>1869448</v>
+        <v>1647426</v>
       </c>
       <c r="R84" s="13">
-        <v>1815486</v>
+        <v>1742429</v>
       </c>
       <c r="S84" s="13">
-        <v>1762784</v>
+        <v>1756958</v>
       </c>
       <c r="T84" s="13">
-        <v>1647426</v>
+        <v>1809714</v>
       </c>
       <c r="U84" s="13">
-        <v>1742429</v>
+        <v>1770798</v>
       </c>
       <c r="V84" s="13">
-        <v>1756958</v>
+        <v>1842068</v>
       </c>
       <c r="W84" s="13">
-        <v>1809714</v>
+        <v>2265636</v>
       </c>
       <c r="X84" s="13">
-        <v>1770798</v>
+        <v>2419089</v>
       </c>
       <c r="Y84" s="13">
-        <v>1842068</v>
+        <v>2477976</v>
       </c>
       <c r="Z84" s="13">
-        <v>2265636</v>
+        <v>2538439</v>
       </c>
       <c r="AA84" s="13">
-        <v>2419089</v>
+        <v>2628514</v>
       </c>
       <c r="AB84" s="13">
-        <v>2477976</v>
+        <v>2463219</v>
       </c>
       <c r="AC84" s="13">
-        <v>2538439</v>
-      </c>
-      <c r="AD84" s="13">
-        <v>2628514</v>
-      </c>
-      <c r="AE84" s="13">
-        <v>2463219</v>
-      </c>
-      <c r="AF84" s="13">
         <v>2443722</v>
       </c>
+      <c r="AD84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF84" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG84" s="13" t="s">
         <v>57</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>65</v>
       </c>
@@ -11009,28 +11009,28 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>865436</v>
+        <v>1086833</v>
       </c>
       <c r="F85" s="11">
-        <v>856375</v>
+        <v>1100000</v>
       </c>
       <c r="G85" s="11">
-        <v>1071369</v>
+        <v>921279</v>
       </c>
       <c r="H85" s="11">
-        <v>1086833</v>
+        <v>927374</v>
       </c>
       <c r="I85" s="11">
-        <v>1100000</v>
+        <v>938608</v>
       </c>
       <c r="J85" s="11">
-        <v>921279</v>
+        <v>0</v>
       </c>
       <c r="K85" s="11">
-        <v>927374</v>
+        <v>0</v>
       </c>
       <c r="L85" s="11">
-        <v>938608</v>
+        <v>0</v>
       </c>
       <c r="M85" s="11">
         <v>0</v>
@@ -11042,19 +11042,19 @@
         <v>0</v>
       </c>
       <c r="P85" s="11">
-        <v>0</v>
+        <v>2890844</v>
       </c>
       <c r="Q85" s="11">
         <v>0</v>
       </c>
-      <c r="R85" s="11">
-        <v>0</v>
-      </c>
-      <c r="S85" s="11">
-        <v>2890844</v>
-      </c>
-      <c r="T85" s="11">
-        <v>0</v>
+      <c r="R85" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S85" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T85" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U85" s="11" t="s">
         <v>57</v>
@@ -11159,7 +11159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>66</v>
       </c>
@@ -11275,8 +11275,8 @@
       <c r="AN86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO86" s="13" t="s">
-        <v>57</v>
+      <c r="AO86" s="13">
+        <v>3540101</v>
       </c>
       <c r="AP86" s="13" t="s">
         <v>57</v>
@@ -11284,8 +11284,8 @@
       <c r="AQ86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR86" s="13">
-        <v>3540101</v>
+      <c r="AR86" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS86" s="13" t="s">
         <v>57</v>
@@ -11318,7 +11318,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>67</v>
       </c>
@@ -11422,26 +11422,26 @@
       <c r="AJ87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK87" s="11" t="s">
-        <v>57</v>
+      <c r="AK87" s="11">
+        <v>4436299</v>
       </c>
       <c r="AL87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM87" s="11" t="s">
-        <v>57</v>
+      <c r="AM87" s="11">
+        <v>3857090</v>
       </c>
       <c r="AN87" s="11">
-        <v>4436299</v>
+        <v>3988519</v>
       </c>
       <c r="AO87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP87" s="11">
-        <v>3857090</v>
-      </c>
-      <c r="AQ87" s="11">
-        <v>3988519</v>
+      <c r="AP87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AR87" s="11" t="s">
         <v>57</v>
